--- a/scripts/deduplicate_project/results/excel/bug_dataset.xlsx
+++ b/scripts/deduplicate_project/results/excel/bug_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hothost/Documents/git/kconfig_case_studies/scripts/deduplicate_project/results/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austin/Documents/kconfig_case_studies/scripts/deduplicate_project/results/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463B41F3-CDF5-404B-AF92-C1ED52599706}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81CB85D-ED4A-4E4F-82B6-DB4A89F53210}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="620" windowWidth="27640" windowHeight="15560" activeTab="1" xr2:uid="{4A3EDA78-1737-2A4C-9A32-3BE6F981E472}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="13860" windowHeight="17540" activeTab="2" xr2:uid="{4A3EDA78-1737-2A4C-9A32-3BE6F981E472}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="65" r:id="rId4"/>
-    <pivotCache cacheId="78" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="177">
   <si>
     <t>line</t>
   </si>
@@ -535,13 +537,46 @@
   </si>
   <si>
     <t>busybox</t>
+  </si>
+  <si>
+    <t>manual_features</t>
+  </si>
+  <si>
+    <t>num_manual_features</t>
+  </si>
+  <si>
+    <t>BIGINT_SLIDING_WINDOW</t>
+  </si>
+  <si>
+    <t>AXHTTPD,HTTP_HAS_CGI,(!CONFIG_PLATFORM_WIN32)</t>
+  </si>
+  <si>
+    <t>AXHTTPD</t>
+  </si>
+  <si>
+    <t>AXHTTPD, HTTP_HAS_AUTHORIZATION,(-CONFIG_C_SAMPLES)</t>
+  </si>
+  <si>
+    <t>SSL_HAS_PEM</t>
+  </si>
+  <si>
+    <t>OPENSSL_COMPATIBLE</t>
+  </si>
+  <si>
+    <t>SSL_USE_PKCS12</t>
+  </si>
+  <si>
+    <t>CONFIG_FDISK, CONFIG_FEATURE_FDISK_WRITABLE, CONFIG_FEATURE_SGI_LABEL</t>
+  </si>
+  <si>
+    <t>CONFIG_MOUNTPOINT, -CONFIG_TOYBOX_FREE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -578,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -630,11 +665,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -650,14 +696,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -667,26 +716,26 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
+        </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -712,6 +761,16 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1096,6 +1155,64 @@
         </left>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1222,6 +1339,50 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
@@ -1241,6 +1402,50 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
@@ -1260,6 +1465,50 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
@@ -1272,6 +1521,162 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5830,7 +6235,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06E04B54-4572-304B-9CC2-A4080500C6B4}" name="PivotTable11" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06E04B54-4572-304B-9CC2-A4080500C6B4}" name="PivotTable11" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:K8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -5934,7 +6339,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9445F523-30A0-CE44-8C59-721E3FF1987A}" name="PivotTable13" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9445F523-30A0-CE44-8C59-721E3FF1987A}" name="PivotTable13" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:K56" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -6254,7 +6659,7 @@
   <dataFields count="1">
     <dataField name="Sum of num_configs" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="7">
+  <chartFormats count="9">
     <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6342,6 +6747,36 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6356,12 +6791,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D9397E23-C85A-2548-AC33-92C34A8E9FAF}" name="Table2" displayName="Table2" ref="A1:L78" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="13">
-  <autoFilter ref="A1:L78" xr:uid="{3800CB88-CF73-B74D-8C54-8EDB40FEDCBB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L78">
-    <sortCondition ref="F1:F78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D9397E23-C85A-2548-AC33-92C34A8E9FAF}" name="Table2" displayName="Table2" ref="A1:N78" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N78">
+    <sortCondition ref="C2:C78"/>
+    <sortCondition ref="D2:D78"/>
+    <sortCondition ref="B2:B78"/>
+    <sortCondition ref="A2:A78"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{63B9125A-89C4-D740-844C-E801D1E2939C}" name="line" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{7B0ABCD6-CD2E-7542-B77B-9743B3338EB6}" name="filename" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{1B2026B3-59AF-7E4B-B65F-8E0881887F7C}" name="tool" dataDxfId="10"/>
@@ -6376,6 +6813,8 @@
     <tableColumn id="12" xr3:uid="{F3F4667B-F065-AD4F-A5D2-F24B84AE9778}" name="ID">
       <calculatedColumnFormula>L1+1</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="13" xr3:uid="{2CB629E3-15C9-D942-934B-1FB409D6130C}" name="manual_features" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{DFA2291E-0A58-8B40-8552-3264D34932ED}" name="num_manual_features" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6684,7 +7123,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
@@ -6698,7 +7137,7 @@
     <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>152</v>
       </c>
@@ -6706,7 +7145,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -6729,7 +7168,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>153</v>
       </c>
@@ -6752,7 +7191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
         <v>154</v>
       </c>
@@ -6785,7 +7224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
         <v>155</v>
       </c>
@@ -6820,7 +7259,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
         <v>156</v>
       </c>
@@ -6864,11 +7303,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DA0319-AEF5-FC4A-9F0F-A1390C02F5B4}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
@@ -6882,7 +7321,7 @@
     <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -6890,7 +7329,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>161</v>
       </c>
@@ -6898,7 +7337,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -6921,7 +7360,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>153</v>
       </c>
@@ -6944,7 +7383,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -6965,7 +7404,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -6986,7 +7425,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -7007,7 +7446,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -7028,7 +7467,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -7049,7 +7488,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -7070,7 +7509,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -7091,7 +7530,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -7112,7 +7551,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -7133,7 +7572,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -7154,7 +7593,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -7175,7 +7614,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -7196,7 +7635,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -7217,7 +7656,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -7238,7 +7677,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -7259,7 +7698,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -7280,7 +7719,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -7301,7 +7740,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -7322,7 +7761,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -7343,7 +7782,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -7364,7 +7803,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -7385,7 +7824,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -7406,7 +7845,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -7427,7 +7866,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -7448,7 +7887,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -7469,7 +7908,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -7490,7 +7929,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -7511,7 +7950,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -7532,7 +7971,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -7553,7 +7992,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -7574,7 +8013,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="5">
         <v>31</v>
       </c>
@@ -7595,7 +8034,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="5">
         <v>32</v>
       </c>
@@ -7616,7 +8055,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="5">
         <v>33</v>
       </c>
@@ -7637,7 +8076,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="5">
         <v>34</v>
       </c>
@@ -7658,7 +8097,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="5">
         <v>35</v>
       </c>
@@ -7679,7 +8118,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="5">
         <v>36</v>
       </c>
@@ -7700,7 +8139,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="5">
         <v>37</v>
       </c>
@@ -7721,7 +8160,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="5">
         <v>38</v>
       </c>
@@ -7742,7 +8181,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="5">
         <v>39</v>
       </c>
@@ -7763,7 +8202,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="5">
         <v>40</v>
       </c>
@@ -7784,7 +8223,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="5">
         <v>41</v>
       </c>
@@ -7805,7 +8244,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="5">
         <v>42</v>
       </c>
@@ -7826,7 +8265,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="5">
         <v>43</v>
       </c>
@@ -7847,7 +8286,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="5">
         <v>44</v>
       </c>
@@ -7868,7 +8307,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="5">
         <v>45</v>
       </c>
@@ -7889,7 +8328,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="5">
         <v>46</v>
       </c>
@@ -7910,7 +8349,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="5">
         <v>47</v>
       </c>
@@ -7931,7 +8370,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" s="5">
         <v>48</v>
       </c>
@@ -7952,7 +8391,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" s="5">
         <v>49</v>
       </c>
@@ -7973,7 +8412,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="5">
         <v>50</v>
       </c>
@@ -7994,7 +8433,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="5" t="s">
         <v>156</v>
       </c>
@@ -8037,13 +8476,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DF8963-DB4B-7D47-8F67-EA7AF28C7FE4}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M30" sqref="M30:N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" customWidth="1"/>
@@ -8053,7 +8493,7 @@
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8090,61 +8530,70 @@
       <c r="L1" s="12" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>53</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="10">
-        <v>258</v>
-      </c>
-      <c r="G2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="8">
+        <v>287</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" t="e">
+        <f>L1+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="10">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F3" s="10">
-        <v>298</v>
+        <v>519</v>
       </c>
       <c r="G3" s="10" t="b">
         <v>1</v>
@@ -8153,37 +8602,39 @@
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="L3" t="e">
         <f>L2+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="8">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F4" s="8">
-        <v>307</v>
+        <v>529</v>
       </c>
       <c r="G4" s="8" t="b">
         <v>1</v>
@@ -8192,35 +8643,39 @@
         <v>1</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="e">
         <f>L3+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="10">
-        <v>135</v>
+        <v>368</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F5" s="10">
-        <v>307</v>
+        <v>529</v>
       </c>
       <c r="G5" s="10" t="b">
         <v>1</v>
@@ -8229,35 +8684,39 @@
         <v>1</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5">
+        <v>23</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="e">
         <f>L4+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="8">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F6" s="8">
-        <v>355</v>
+        <v>468</v>
       </c>
       <c r="G6" s="8" t="b">
         <v>1</v>
@@ -8266,37 +8725,39 @@
         <v>1</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6">
+        <v>29</v>
+      </c>
+      <c r="L6" t="e">
         <f>L5+1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="10">
-        <v>66</v>
+        <v>628</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" s="10">
-        <v>355</v>
+        <v>527</v>
       </c>
       <c r="G7" s="10" t="b">
         <v>1</v>
@@ -8305,25 +8766,27 @@
         <v>1</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7">
+        <v>33</v>
+      </c>
+      <c r="L7" t="e">
         <f>L6+1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="8">
-        <v>136</v>
+        <v>662</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>12</v>
@@ -8332,10 +8795,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F8" s="8">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="G8" s="8" t="b">
         <v>1</v>
@@ -8344,25 +8807,27 @@
         <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8">
+        <v>33</v>
+      </c>
+      <c r="L8" t="e">
         <f>L7+1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="8">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>12</v>
@@ -8374,200 +8839,208 @@
         <v>25</v>
       </c>
       <c r="F9" s="8">
+        <v>520</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="e">
+        <f>L8+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="10">
+        <v>137</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="10">
+        <v>516</v>
+      </c>
+      <c r="G10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="e">
+        <f>L9+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="8">
+        <v>89</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="8">
         <v>474</v>
       </c>
-      <c r="G9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="G11" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L9">
-        <f>L8+1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>89</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="L11" t="e">
+        <f>L10+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="10">
+        <v>159</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="8">
-        <v>474</v>
-      </c>
-      <c r="G10" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10">
-        <f>L9+1</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>159</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="E12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10">
+        <v>478</v>
+      </c>
+      <c r="G12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" t="e">
+        <f>L11+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8">
+        <v>218</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="10">
-        <v>478</v>
-      </c>
-      <c r="G11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11">
-        <f>L10+1</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>406</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="10">
-        <v>482</v>
-      </c>
-      <c r="G12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12">
-        <f>L11+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>69</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F13" s="8">
-        <v>485</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13">
+        <v>85</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" t="e">
         <f>L12+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="10">
+        <v>64</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="F14" s="10">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="G14" s="10" t="b">
         <v>1</v>
@@ -8576,37 +9049,39 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14">
+        <v>89</v>
+      </c>
+      <c r="L14" t="e">
         <f>L13+1</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="8">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8">
-        <v>485</v>
+        <v>667</v>
       </c>
       <c r="G15" s="8" t="b">
         <v>1</v>
@@ -8615,642 +9090,680 @@
         <v>1</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15">
+        <v>93</v>
+      </c>
+      <c r="L15" t="e">
         <f>L14+1</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="10">
+        <v>186</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="10">
+        <v>298</v>
+      </c>
+      <c r="G16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" t="e">
+        <f>L15+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="8">
+        <v>60</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="8">
+        <v>516</v>
+      </c>
+      <c r="G17" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" t="e">
+        <f>L16+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="10">
+        <v>82</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="10">
+        <v>516</v>
+      </c>
+      <c r="G18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" t="e">
+        <f>L17+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="8">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="8">
+        <v>497</v>
+      </c>
+      <c r="G19" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" t="e">
+        <f>L18+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="10">
+        <v>49</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="10">
+        <v>493</v>
+      </c>
+      <c r="G20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" t="e">
+        <f>L19+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="8">
+        <v>31</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="8">
+        <v>355</v>
+      </c>
+      <c r="G21" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" t="e">
+        <f>L20+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="10">
+        <v>66</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="10">
+        <v>355</v>
+      </c>
+      <c r="G22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" t="e">
+        <f>L21+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="8">
+        <v>29</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="8">
+        <v>494</v>
+      </c>
+      <c r="G23" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" t="e">
+        <f>L22+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="10">
+        <v>51</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="10">
+        <v>517</v>
+      </c>
+      <c r="G24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" t="e">
+        <f>L23+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="8">
+        <v>184</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="8">
+        <v>675</v>
+      </c>
+      <c r="G25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" t="e">
+        <f>L24+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="8">
         <v>138</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F26" s="8">
         <v>486</v>
       </c>
-      <c r="G16" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8" t="e">
+      <c r="G26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8" t="e">
         <f>-CONFIG_KILL and -CONFIG_FEATURE_LESS_ASK_TERMINAL and CONFIG_FEATURE_TRACEROUTE_USE_ICMP and -CONFIG_PID_FILE_PATH and -CONFIG_SH_IS_NONE and CONFIG_FEATURE_TAB_COMPLETION and -CONFIG_DEBUG_PESSIMIZE and -CONFIG_FEATURE_INSTALL_LONG_OPTIONS and -CONFIG_LOGGER and CONFIG_WHICH and -CONFIG_FEATURE_PIDFILE and CONFIG_FEATURE_LESS_FLAGS and CONFIG_DHCPD_LEASES_FILE and -CONFIG_RAIDAUTORUN and -CONFIG_LSATTR and CONFIG_FEATURE_XARGS_SUPPORT_CONFIRMATION and -CONFIG_ASH_MAIL and -CONFIG_FEATURE_SEAMLESS_GZ and CONFIG_HUSH_ULIMIT and CONFIG_UBIUPDATEVOL and CONFIG_FEATURE_KILL_REMOVED and CONFIG_HUSH_INTERACTIVE and CONFIG_UNICODE_COMBINING_WCHARS and CONFIG_UUDECODE and CONFIG_HUSH_WAIT and CONFIG_FEATURE_EJECT_SCSI and -CONFIG_FEATURE_SH_STANDALONE and CONFIG_FEATURE_IPV6 and CONFIG_ASH and -CONFIG_IPNEIGH and CONFIG_FEATURE_IFCONFIG_MEMSTART_IOADDR_IRQ and CONFIG_UNSHARE and -CONFIG_POWEROFF and CONFIG_OPENVT and -CONFIG_IONICE and CONFIG_SWITCH_ROOT and CONFIG_FEATURE_BRCTL_FANCY and -CONFIG_MPSTAT and CONFIG_FEATURE_PREFER_APPLETS and -CONFIG_FEATURE_HTTPD_PROXY and -CONFIG_ADJTIMEX and -CONFIG_AR and -CONFIG_CTTYHACK and CONFIG_WATCH and -CONFIG_FEATURE_VI_UNDO_QUEUE_MAX and CONFIG_FEATURE_INIT_QUIET and CONFIG_FEATURE_MAKEDEVS_TABLE and CONFIG_FEATURE_EDITING_MAX_LEN and CONFIG_FACTOR and -CONFIG_NC_EXTRA and CONFIG_LINUXRC and CONFIG_FEATURE_TOPMEM and CONFIG_IFCONFIG and -CONFIG_FEATURE_IP_LINK and -CONFIG_FEATURE_ROTATE_LOGFILE and CONFIG_FEATURE_MODUTILS_ALIAS and CONFIG_GROUPS and -CONFIG_SENDMAIL and CONFIG_FEATURE_MOUNT_LOOP and -CONFIG_MKDIR and -CONFIG_UNICODE_WIDE_WCHARS and CONFIG_FEATURE_TELNET_AUTOLOGIN and -CONFIG_HEXDUMP and -CONFIG_FEATURE_VI_UNDO and -CONFIG_FEATURE_SEAMLESS_XZ and -CONFIG_DEBUG_SANITIZE and CONFIG_FEATURE_TELNET_TTYPE and -CONFIG_UNICODE_BIDI_SUPPORT and CONFIG_UDHCPC_DEFAULT_SCRIPT and -CONFIG_MODINFO and -CONFIG_FEATURE_WGET_LONG_OPTIONS and -CONFIG_FEATURE_GREP_CONTEXT and CONFIG_FEATURE_DC_LIBM and -CONFIG_FEATURE_TR_EQUIV and -CONFIG_VOLNAME and -CONFIG_TFTP_DEBUG and CONFIG_FEATURE_MD5_SHA1_SUM_CHECK and -CONFIG_UNICODE_PRESERVE_BROKEN and CONFIG_FIRST_SYSTEM_ID and CONFIG_IPCS and -CONFIG_BUILD_LIBBUSYBOX and -CONFIG_ASH_JOB_CONTROL and CONFIG_FTPD and CONFIG_HUSH_BRACE_EXPANSION and -CONFIG_BASH_IS_HUSH and CONFIG_USE_PORTABLE_CODE and -CONFIG_FEATURE_REMOTE_LOG and CONFIG_FREERAMDISK and CONFIG_FEATURE_EDITING_SAVEHISTORY and -CONFIG_FEATURE_TASKSET_FANCY and CONFIG_FEATURE_FDISK_WRITABLE and CONFIG_FEATURE_BEEP_FREQ and -CONFIG_FEATURE_HTTPD_BASIC_AUTH and CONFIG_SETKEYCODES and CONFIG_UNICODE_SUPPORT and CONFIG_FEATURE_ACPID_COMPAT and -CONFIG_UNIX2DOS and -CONFIG_SEQ and -CONFIG_FEATURE_DD_THIRD_STATUS_LINE and CONFIG_FEATURE_MIME_CHARSET and CONFIG_FEATURE_FIND_XDEV and CONFIG_LSUSB and -CONFIG_FEATURE_TFTP_PUT and CONFIG_FEATURE_WTMP and -CONFIG_SHUF and CONFIG_PS and -CONFIG_FEATURE_PASSWD_WEAK_CHECK and CONFIG_SYNC and CONFIG_FEATURE_CLEAN_UP and -CONFIG_FEATURE_INIT_MODIFY_CMDLINE and -CONFIG_NBDCLIENT and -CONFIG_FEATURE_FIND_PERM and -CONFIG_FEATURE_FIND_MAXDEPTH and CONFIG_GZIP and CONFIG_CHRT and CONFIG_FEATURE_VI_YANKMARK and -CONFIG_FEATURE_TAR_FROM and -CONFIG_FEATURE_FIND_CONTEXT and -CONFIG_FEATURE_TFTP_PROGRESS_BAR and CONFIG_FEATURE_NON_POSIX_CP and CONFIG_FEATURE_UTMP and CONFIG_FTPGET and CONFIG_FEATURE_MDEV_LOAD_FIRMWARE and CONFIG_RMMOD and CONFIG_TAIL and -CONFIG_RUN_PARTS and CONFIG_LAST_SUPPORTED_WCHAR and CONFIG_NANDWRITE and CONFIG_HUSH_TICK and CONFIG_MORE and -CONFIG_FEATURE_MDEV_RENAME_REGEXP and CONFIG_DNSD and CONFIG_I2CDETECT and -CONFIG_CMP and -CONFIG_RUN_INIT and -CONFIG_UBIMKVOL and -CONFIG_FEATURE_CALL_TELINIT and -CONFIG_BUSYBOX and -CONFIG_GUNZIP and CONFIG_FEDORA_COMPAT and CONFIG_UNAME and -CONFIG_FEATURE_VOLUMEID_XFS and CONFIG_FBSPLASH and -CONFIG_TAC and CONFIG_LOAD_POLICY and CONFIG_FEATURE_MODPROBE_BLACKLIST and CONFIG_FSFREEZE and CONFIG_I2CGET and -CONFIG_FEATURE_SUID_CONFIG_QUIET and CONFIG_MV and CONFIG_PATCH and CONFIG_FEATURE_XARGS_SUPPORT_ZERO_TERM and CONFIG_FEATURE_FTPD_ACCEPT_BROKEN_LIST and CONFIG_PKILL and CONFIG_DOS2UNIX and CONFIG_CHAT and CONFIG_FEATURE_USE_SENDFILE and CONFIG_FEATURE_IP_ROUTE_DIR and -CONFIG_MKTEMP and -CONFIG_FEATURE_LS_FILETYPES and -CONFIG_FEATURE_SUID and CONFIG_IFUPDOWN_UDHCPC_CMD_OPTIONS and CONFIG_READLINK and CONFIG_DMALLOC and CONFIG_SETSEBOOL and -CONFIG_DF and -CONFIG_RUNLEVEL and -CONFIG_HUSH_CASE and -CONFIG_FEATURE_UDHCP_PORT and -CONFIG_FEATURE_CHAT_TTY_HIFI and CONFIG_FEATURE_UDHCPC6_RFC4833 and CONFIG_FEATURE_IP_ROUTE and -CONFIG_FEATURE_BUFFERS_GO_ON_STACK and -CONFIG_LFS and CONFIG_FEATURE_SYSLOGD_READ_BUFFER_SIZE and CONFIG_SETLOGCONS and -CONFIG_SESTATUS and CONFIG_LOGIN_SCRIPTS and CONFIG_SCRIPT and -CONFIG_FEATURE_CHECK_TAINTED_MODULE and -CONFIG_RUNSVDIR and -CONFIG_FEATURE_MOUNT_LOOP_CREATE and -CONFIG_WALL and -CONFIG_IPADDR and CONFIG_FEATURE_AWK_GNU_EXTENSIONS and -CONFIG_FEATURE_SPLIT_FANCY and -CONFIG_FEATURE_LAST_FANCY and CONFIG_FEATURE_HDPARM_HDIO_UNREGISTER_HWIF and -CONFIG_BZCAT and -CONFIG_DEVFSD_FG_NP and -CONFIG_UNCOMPRESS and -CONFIG_FEATURE_WGET_STATUSBAR and -CONFIG_DIFF and CONFIG_UNZIP and -CONFIG_TRUNCATE and -CONFIG_FEATURE_PS_LONG and CONFIG_IPRULE and -CONFIG_FEATURE_TAR_OLDSUN_COMPATIBILITY and CONFIG_RESIZE and -CONFIG_YES and -CONFIG_FEATURE_VOLUMEID_HFS and -CONFIG_ARP and CONFIG_FEATURE_FIND_NEWER and CONFIG_FEATURE_BUFFERS_GO_IN_BSS and CONFIG_ADDUSER and -CONFIG_FEATURE_SUN_LABEL and CONFIG_PSTREE and CONFIG_BZIP2 and CONFIG_FOLD and -CONFIG_FEATURE_LS_COLOR_IS_DEFAULT and CONFIG_TRACEROUTE6 and CONFIG_FEATURE_SYSLOGD_DUP and CONFIG_FEATURE_HTTPD_CGI and CONFIG_LZCAT and -CONFIG_SHA1SUM and -CONFIG_FEATURE_AR_LONG_FILENAMES and -CONFIG_FEATURE_FANCY_TAIL and -CONFIG_HUSH_READ and -CONFIG_FSTRIM and -CONFIG_FEATURE_SORT_BIG and CONFIG_FEATURE_SH_MATH and CONFIG_LINUX32 and -CONFIG_FGCONSOLE and -CONFIG_TEST2 and -CONFIG_FEATURE_BOOTCHARTD_CONFIG_FILE and CONFIG_USLEEP and CONFIG_NICE and -CONFIG_RFKILL and -CONFIG_INSTALL_APPLET_DONT and CONFIG_FEATURE_IP_RULE and -CONFIG_VCONFIG and CONFIG_IFUP and CONFIG_ASH_GETOPTS and -CONFIG_FEATURE_TUNCTL_UG and -CONFIG_SETFATTR and CONFIG_FEATURE_MOUNT_FLAGS and CONFIG_FEATURE_XARGS_SUPPORT_REPL_STR and CONFIG_DEFAULT_DEPMOD_FILE and CONFIG_HTTPD and -CONFIG_TRACEROUTE and -CONFIG_HUSH_LOCAL and CONFIG_TEE and -CONFIG_TEST and -CONFIG_IFDOWN and CONFIG_NAMEIF and -CONFIG_FEATURE_VOLUMEID_UBIFS and CONFIG_UDHCPC and CONFIG_FEATURE_SWAPON_PRI and CONFIG_ID and CONFIG_FEATURE_FANCY_SLEEP and CONFIG_BEEP and CONFIG_FEATURE_LZMA_FAST and CONFIG_FEATURE_FIND_MTIME and -CONFIG_FEATURE_VI_WIN_RESIZE and -CONFIG_INSTALL_SH_APPLET_SCRIPT_WRAPPER and CONFIG_TFTP and CONFIG_FEATURE_CPIO_O and CONFIG_FDISK and -CONFIG_FEATURE_WGET_TIMEOUT and CONFIG_IPCALC and -CONFIG_BUNZIP2 and CONFIG_MOUNT and CONFIG_FEATURE_RESIZE_PRINT and -CONFIG_HUSH_PRINTF and -CONFIG_FEATURE_VOLUMEID_BTRFS and CONFIG_HOSTID and CONFIG_EXPR and CONFIG_FEATURE_FIND_USER and CONFIG_FEATURE_DEVFS and CONFIG_FEATURE_RTMINMAX and CONFIG_DEFAULT_MODULES_DIR and -CONFIG_BLKDISCARD and -CONFIG_CP and -CONFIG_DHCPRELAY and -CONFIG_MICROCOM and -CONFIG_FEATURE_IP_TUNNEL and CONFIG_PARTPROBE and CONFIG_CHPST and -CONFIG_FEATURE_IFUPDOWN_MAPPING and CONFIG_FEATURE_HTTPD_ERROR_PAGES and CONFIG_FEATURE_FANCY_ECHO and CONFIG_FEATURE_CHAT_IMPLICIT_CR and -CONFIG_HUSH_FUNCTIONS and -CONFIG_RUNCON and CONFIG_SPLIT and -CONFIG_FEATURE_STAT_FILESYSTEM and -CONFIG_INSTALL_SH_APPLET_SYMLINK and -CONFIG_FEATURE_TELNETD_STANDALONE and CONFIG_FEATURE_SYSLOGD_CFG and CONFIG_ASH_INTERNAL_GLOB and -CONFIG_SED and -CONFIG_FEATURE_TFTP_BLOCKSIZE and CONFIG_HUSH_TRAP and -CONFIG_RESET and CONFIG_BBCONFIG and CONFIG_FEATURE_MOUNT_NFS and CONFIG_FEATURE_DATE_NANO and -CONFIG_FEATURE_FIND_PRUNE and CONFIG_FEATURE_SETFONT_TEXTUAL_MAP and CONFIG_SLATTACH and -CONFIG_TEST1 and CONFIG_FEATURE_UNIX_LOCAL and -CONFIG_LSSCSI and CONFIG_FEATURE_READLINK_FOLLOW and CONFIG_WGET and -CONFIG_RX and -CONFIG_FEATURE_VOLUMEID_SYSV and CONFIG_FEATURE_IP_RARE_PROTOCOLS and CONFIG_FEATURE_FANCY_PING and CONFIG_ENVDIR and -CONFIG_LOADFONT and -CONFIG_FEATURE_VOLUMEID_ISO9660 and -CONFIG_FEATURE_SETCONSOLE_LONG_</f>
         <v>#NAME?</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16">
-        <f>L15+1</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="K26" s="9"/>
+      <c r="L26" t="e">
+        <f>L25+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="10">
         <v>139</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F27" s="10">
         <v>486</v>
       </c>
-      <c r="G17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10" t="e">
+      <c r="G27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10" t="e">
         <f>-CONFIG_KILL and -CONFIG_FEATURE_LESS_ASK_TERMINAL and CONFIG_FEATURE_TRACEROUTE_USE_ICMP and -CONFIG_PID_FILE_PATH and -CONFIG_SH_IS_NONE and CONFIG_FEATURE_TAB_COMPLETION and -CONFIG_DEBUG_PESSIMIZE and -CONFIG_FEATURE_INSTALL_LONG_OPTIONS and -CONFIG_LOGGER and CONFIG_WHICH and -CONFIG_FEATURE_PIDFILE and CONFIG_FEATURE_LESS_FLAGS and CONFIG_DHCPD_LEASES_FILE and -CONFIG_RAIDAUTORUN and -CONFIG_LSATTR and CONFIG_FEATURE_XARGS_SUPPORT_CONFIRMATION and -CONFIG_ASH_MAIL and -CONFIG_FEATURE_SEAMLESS_GZ and CONFIG_HUSH_ULIMIT and CONFIG_UBIUPDATEVOL and CONFIG_FEATURE_KILL_REMOVED and CONFIG_HUSH_INTERACTIVE and CONFIG_UNICODE_COMBINING_WCHARS and CONFIG_UUDECODE and CONFIG_HUSH_WAIT and CONFIG_FEATURE_EJECT_SCSI and -CONFIG_FEATURE_SH_STANDALONE and CONFIG_FEATURE_IPV6 and CONFIG_ASH and -CONFIG_IPNEIGH and CONFIG_FEATURE_IFCONFIG_MEMSTART_IOADDR_IRQ and CONFIG_UNSHARE and -CONFIG_POWEROFF and CONFIG_OPENVT and -CONFIG_IONICE and CONFIG_SWITCH_ROOT and CONFIG_FEATURE_BRCTL_FANCY and -CONFIG_MPSTAT and CONFIG_FEATURE_PREFER_APPLETS and -CONFIG_FEATURE_HTTPD_PROXY and -CONFIG_ADJTIMEX and -CONFIG_AR and -CONFIG_CTTYHACK and CONFIG_WATCH and -CONFIG_FEATURE_VI_UNDO_QUEUE_MAX and CONFIG_FEATURE_INIT_QUIET and CONFIG_FEATURE_MAKEDEVS_TABLE and CONFIG_FEATURE_EDITING_MAX_LEN and CONFIG_FACTOR and -CONFIG_NC_EXTRA and CONFIG_LINUXRC and CONFIG_FEATURE_TOPMEM and CONFIG_IFCONFIG and -CONFIG_FEATURE_IP_LINK and -CONFIG_FEATURE_ROTATE_LOGFILE and CONFIG_FEATURE_MODUTILS_ALIAS and CONFIG_GROUPS and -CONFIG_SENDMAIL and CONFIG_FEATURE_MOUNT_LOOP and -CONFIG_MKDIR and -CONFIG_UNICODE_WIDE_WCHARS and CONFIG_FEATURE_TELNET_AUTOLOGIN and -CONFIG_HEXDUMP and -CONFIG_FEATURE_VI_UNDO and -CONFIG_FEATURE_SEAMLESS_XZ and -CONFIG_DEBUG_SANITIZE and CONFIG_FEATURE_TELNET_TTYPE and -CONFIG_UNICODE_BIDI_SUPPORT and CONFIG_UDHCPC_DEFAULT_SCRIPT and -CONFIG_MODINFO and -CONFIG_FEATURE_WGET_LONG_OPTIONS and -CONFIG_FEATURE_GREP_CONTEXT and CONFIG_FEATURE_DC_LIBM and -CONFIG_FEATURE_TR_EQUIV and -CONFIG_VOLNAME and -CONFIG_TFTP_DEBUG and CONFIG_FEATURE_MD5_SHA1_SUM_CHECK and -CONFIG_UNICODE_PRESERVE_BROKEN and CONFIG_FIRST_SYSTEM_ID and CONFIG_IPCS and -CONFIG_BUILD_LIBBUSYBOX and -CONFIG_ASH_JOB_CONTROL and CONFIG_FTPD and CONFIG_HUSH_BRACE_EXPANSION and -CONFIG_BASH_IS_HUSH and CONFIG_USE_PORTABLE_CODE and -CONFIG_FEATURE_REMOTE_LOG and CONFIG_FREERAMDISK and CONFIG_FEATURE_EDITING_SAVEHISTORY and -CONFIG_FEATURE_TASKSET_FANCY and CONFIG_FEATURE_FDISK_WRITABLE and CONFIG_FEATURE_BEEP_FREQ and -CONFIG_FEATURE_HTTPD_BASIC_AUTH and CONFIG_SETKEYCODES and CONFIG_UNICODE_SUPPORT and CONFIG_FEATURE_ACPID_COMPAT and -CONFIG_UNIX2DOS and -CONFIG_SEQ and -CONFIG_FEATURE_DD_THIRD_STATUS_LINE and CONFIG_FEATURE_MIME_CHARSET and CONFIG_FEATURE_FIND_XDEV and CONFIG_LSUSB and -CONFIG_FEATURE_TFTP_PUT and CONFIG_FEATURE_WTMP and -CONFIG_SHUF and CONFIG_PS and -CONFIG_FEATURE_PASSWD_WEAK_CHECK and CONFIG_SYNC and CONFIG_FEATURE_CLEAN_UP and -CONFIG_FEATURE_INIT_MODIFY_CMDLINE and -CONFIG_NBDCLIENT and -CONFIG_FEATURE_FIND_PERM and -CONFIG_FEATURE_FIND_MAXDEPTH and CONFIG_GZIP and CONFIG_CHRT and CONFIG_FEATURE_VI_YANKMARK and -CONFIG_FEATURE_TAR_FROM and -CONFIG_FEATURE_FIND_CONTEXT and -CONFIG_FEATURE_TFTP_PROGRESS_BAR and CONFIG_FEATURE_NON_POSIX_CP and CONFIG_FEATURE_UTMP and CONFIG_FTPGET and CONFIG_FEATURE_MDEV_LOAD_FIRMWARE and CONFIG_RMMOD and CONFIG_TAIL and -CONFIG_RUN_PARTS and CONFIG_LAST_SUPPORTED_WCHAR and CONFIG_NANDWRITE and CONFIG_HUSH_TICK and CONFIG_MORE and -CONFIG_FEATURE_MDEV_RENAME_REGEXP and CONFIG_DNSD and CONFIG_I2CDETECT and -CONFIG_CMP and -CONFIG_RUN_INIT and -CONFIG_UBIMKVOL and -CONFIG_FEATURE_CALL_TELINIT and -CONFIG_BUSYBOX and -CONFIG_GUNZIP and CONFIG_FEDORA_COMPAT and CONFIG_UNAME and -CONFIG_FEATURE_VOLUMEID_XFS and CONFIG_FBSPLASH and -CONFIG_TAC and CONFIG_LOAD_POLICY and CONFIG_FEATURE_MODPROBE_BLACKLIST and CONFIG_FSFREEZE and CONFIG_I2CGET and -CONFIG_FEATURE_SUID_CONFIG_QUIET and CONFIG_MV and CONFIG_PATCH and CONFIG_FEATURE_XARGS_SUPPORT_ZERO_TERM and CONFIG_FEATURE_FTPD_ACCEPT_BROKEN_LIST and CONFIG_PKILL and CONFIG_DOS2UNIX and CONFIG_CHAT and CONFIG_FEATURE_USE_SENDFILE and CONFIG_FEATURE_IP_ROUTE_DIR and -CONFIG_MKTEMP and -CONFIG_FEATURE_LS_FILETYPES and -CONFIG_FEATURE_SUID and CONFIG_IFUPDOWN_UDHCPC_CMD_OPTIONS and CONFIG_READLINK and CONFIG_DMALLOC and CONFIG_SETSEBOOL and -CONFIG_DF and -CONFIG_RUNLEVEL and -CONFIG_HUSH_CASE and -CONFIG_FEATURE_UDHCP_PORT and -CONFIG_FEATURE_CHAT_TTY_HIFI and CONFIG_FEATURE_UDHCPC6_RFC4833 and CONFIG_FEATURE_IP_ROUTE and -CONFIG_FEATURE_BUFFERS_GO_ON_STACK and -CONFIG_LFS and CONFIG_FEATURE_SYSLOGD_READ_BUFFER_SIZE and CONFIG_SETLOGCONS and -CONFIG_SESTATUS and CONFIG_LOGIN_SCRIPTS and CONFIG_SCRIPT and -CONFIG_FEATURE_CHECK_TAINTED_MODULE and -CONFIG_RUNSVDIR and -CONFIG_FEATURE_MOUNT_LOOP_CREATE and -CONFIG_WALL and -CONFIG_IPADDR and CONFIG_FEATURE_AWK_GNU_EXTENSIONS and -CONFIG_FEATURE_SPLIT_FANCY and -CONFIG_FEATURE_LAST_FANCY and CONFIG_FEATURE_HDPARM_HDIO_UNREGISTER_HWIF and -CONFIG_BZCAT and -CONFIG_DEVFSD_FG_NP and -CONFIG_UNCOMPRESS and -CONFIG_FEATURE_WGET_STATUSBAR and -CONFIG_DIFF and CONFIG_UNZIP and -CONFIG_TRUNCATE and -CONFIG_FEATURE_PS_LONG and CONFIG_IPRULE and -CONFIG_FEATURE_TAR_OLDSUN_COMPATIBILITY and CONFIG_RESIZE and -CONFIG_YES and -CONFIG_FEATURE_VOLUMEID_HFS and -CONFIG_ARP and CONFIG_FEATURE_FIND_NEWER and CONFIG_FEATURE_BUFFERS_GO_IN_BSS and CONFIG_ADDUSER and -CONFIG_FEATURE_SUN_LABEL and CONFIG_PSTREE and CONFIG_BZIP2 and CONFIG_FOLD and -CONFIG_FEATURE_LS_COLOR_IS_DEFAULT and CONFIG_TRACEROUTE6 and CONFIG_FEATURE_SYSLOGD_DUP and CONFIG_FEATURE_HTTPD_CGI and CONFIG_LZCAT and -CONFIG_SHA1SUM and -CONFIG_FEATURE_AR_LONG_FILENAMES and -CONFIG_FEATURE_FANCY_TAIL and -CONFIG_HUSH_READ and -CONFIG_FSTRIM and -CONFIG_FEATURE_SORT_BIG and CONFIG_FEATURE_SH_MATH and CONFIG_LINUX32 and -CONFIG_FGCONSOLE and -CONFIG_TEST2 and -CONFIG_FEATURE_BOOTCHARTD_CONFIG_FILE and CONFIG_USLEEP and CONFIG_NICE and -CONFIG_RFKILL and -CONFIG_INSTALL_APPLET_DONT and CONFIG_FEATURE_IP_RULE and -CONFIG_VCONFIG and CONFIG_IFUP and CONFIG_ASH_GETOPTS and -CONFIG_FEATURE_TUNCTL_UG and -CONFIG_SETFATTR and CONFIG_FEATURE_MOUNT_FLAGS and CONFIG_FEATURE_XARGS_SUPPORT_REPL_STR and CONFIG_DEFAULT_DEPMOD_FILE and CONFIG_HTTPD and -CONFIG_TRACEROUTE and -CONFIG_HUSH_LOCAL and CONFIG_TEE and -CONFIG_TEST and -CONFIG_IFDOWN and CONFIG_NAMEIF and -CONFIG_FEATURE_VOLUMEID_UBIFS and CONFIG_UDHCPC and CONFIG_FEATURE_SWAPON_PRI and CONFIG_ID and CONFIG_FEATURE_FANCY_SLEEP and CONFIG_BEEP and CONFIG_FEATURE_LZMA_FAST and CONFIG_FEATURE_FIND_MTIME and -CONFIG_FEATURE_VI_WIN_RESIZE and -CONFIG_INSTALL_SH_APPLET_SCRIPT_WRAPPER and CONFIG_TFTP and CONFIG_FEATURE_CPIO_O and CONFIG_FDISK and -CONFIG_FEATURE_WGET_TIMEOUT and CONFIG_IPCALC and -CONFIG_BUNZIP2 and CONFIG_MOUNT and CONFIG_FEATURE_RESIZE_PRINT and -CONFIG_HUSH_PRINTF and -CONFIG_FEATURE_VOLUMEID_BTRFS and CONFIG_HOSTID and CONFIG_EXPR and CONFIG_FEATURE_FIND_USER and CONFIG_FEATURE_DEVFS and CONFIG_FEATURE_RTMINMAX and CONFIG_DEFAULT_MODULES_DIR and -CONFIG_BLKDISCARD and -CONFIG_CP and -CONFIG_DHCPRELAY and -CONFIG_MICROCOM and -CONFIG_FEATURE_IP_TUNNEL and CONFIG_PARTPROBE and CONFIG_CHPST and -CONFIG_FEATURE_IFUPDOWN_MAPPING and CONFIG_FEATURE_HTTPD_ERROR_PAGES and CONFIG_FEATURE_FANCY_ECHO and CONFIG_FEATURE_CHAT_IMPLICIT_CR and -CONFIG_HUSH_FUNCTIONS and -CONFIG_RUNCON and CONFIG_SPLIT and -CONFIG_FEATURE_STAT_FILESYSTEM and -CONFIG_INSTALL_SH_APPLET_SYMLINK and -CONFIG_FEATURE_TELNETD_STANDALONE and CONFIG_FEATURE_SYSLOGD_CFG and CONFIG_ASH_INTERNAL_GLOB and -CONFIG_SED and -CONFIG_FEATURE_TFTP_BLOCKSIZE and CONFIG_HUSH_TRAP and -CONFIG_RESET and CONFIG_BBCONFIG and CONFIG_FEATURE_MOUNT_NFS and CONFIG_FEATURE_DATE_NANO and -CONFIG_FEATURE_FIND_PRUNE and CONFIG_FEATURE_SETFONT_TEXTUAL_MAP and CONFIG_SLATTACH and -CONFIG_TEST1 and CONFIG_FEATURE_UNIX_LOCAL and -CONFIG_LSSCSI and CONFIG_FEATURE_READLINK_FOLLOW and CONFIG_WGET and -CONFIG_RX and -CONFIG_FEATURE_VOLUMEID_SYSV and CONFIG_FEATURE_IP_RARE_PROTOCOLS and CONFIG_FEATURE_FANCY_PING and CONFIG_ENVDIR and -CONFIG_LOADFONT and -CONFIG_FEATURE_VOLUMEID_ISO9660 and -CONFIG_FEATURE_SETCONSOLE_LONG_</f>
         <v>#NAME?</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17">
-        <f>L16+1</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>49</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="K27" s="11"/>
+      <c r="L27" t="e">
+        <f>L26+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" t="s">
+        <v>175</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="8">
+        <v>262</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" t="e">
+        <f>L27+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="10">
+        <v>227</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" t="e">
+        <f>L28+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="10">
+        <v>586</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="10">
-        <v>493</v>
-      </c>
-      <c r="G18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18">
-        <f>L17+1</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <v>49</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="E30" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="10">
+        <v>694</v>
+      </c>
+      <c r="G30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="11"/>
+      <c r="L30" t="e">
+        <f>L29+1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="8">
+        <v>24</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E31" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="10">
-        <v>493</v>
-      </c>
-      <c r="G19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19">
-        <f>L18+1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>29</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="8">
-        <v>494</v>
-      </c>
-      <c r="G20" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20">
-        <f>L19+1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>29</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="8">
-        <v>494</v>
-      </c>
-      <c r="G21" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="L21">
-        <f>L20+1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>1319</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="8">
-        <v>497</v>
-      </c>
-      <c r="G22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22">
-        <f>L21+1</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="8">
-        <v>497</v>
-      </c>
-      <c r="G23" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L23">
-        <f>L22+1</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>173</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="10">
-        <v>501</v>
-      </c>
-      <c r="G24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24">
-        <f>L23+1</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>177</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="8">
-        <v>501</v>
-      </c>
-      <c r="G25" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25">
-        <f>L24+1</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>288</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="10">
-        <v>501</v>
-      </c>
-      <c r="G26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26">
-        <f>L25+1</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>54</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="8">
-        <v>501</v>
-      </c>
-      <c r="G27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L27">
-        <f>L26+1</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>1373</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="10">
-        <v>503</v>
-      </c>
-      <c r="G28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28">
-        <f>L27+1</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>137</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="10">
-        <v>516</v>
-      </c>
-      <c r="G29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29">
-        <f>L28+1</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>60</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="8">
-        <v>516</v>
-      </c>
-      <c r="G30" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L30">
-        <f>L29+1</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>82</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="10">
-        <v>516</v>
-      </c>
-      <c r="G31" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="L31">
+      <c r="F31" s="8">
+        <v>520</v>
+      </c>
+      <c r="G31" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" t="e">
         <f>L30+1</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M31" t="s">
+        <v>71</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="10">
         <v>137</v>
       </c>
@@ -9284,29 +9797,35 @@
       <c r="K32" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="e">
         <f>L31+1</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="8">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F33" s="8">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="G33" s="8" t="b">
         <v>1</v>
@@ -9315,37 +9834,43 @@
         <v>1</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L33">
+        <v>81</v>
+      </c>
+      <c r="L33" t="e">
         <f>L32+1</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M33" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="10">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F34" s="10">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="G34" s="10" t="b">
         <v>1</v>
@@ -9354,64 +9879,70 @@
         <v>1</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="L34">
+        <v>89</v>
+      </c>
+      <c r="L34" t="e">
         <f>L33+1</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>51</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="10" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="8">
+        <v>118</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="10">
-        <v>517</v>
-      </c>
-      <c r="G35" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L35">
+      <c r="E35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="8">
+        <v>522</v>
+      </c>
+      <c r="G35" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="L35" t="e">
         <f>L34+1</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="10">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>60</v>
@@ -9423,652 +9954,713 @@
         <v>132</v>
       </c>
       <c r="F36" s="10">
+        <v>493</v>
+      </c>
+      <c r="G36" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L36" t="e">
+        <f>L35+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M36" t="s">
+        <v>87</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="8">
+        <v>29</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="8">
+        <v>494</v>
+      </c>
+      <c r="G37" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L37" t="e">
+        <f>L36+1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="10">
+        <v>51</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="10">
         <v>517</v>
       </c>
-      <c r="G36" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="10" t="s">
+      <c r="G38" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J38" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K38" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="L36">
-        <f>L35+1</f>
+      <c r="L38" t="e">
+        <f>L37+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M38" t="s">
+        <v>122</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="10">
+        <v>104</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
-        <v>297</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="10">
-        <v>519</v>
-      </c>
-      <c r="G37" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37">
-        <f>L36+1</f>
+      <c r="E39" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <v>24</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="8">
-        <v>520</v>
-      </c>
-      <c r="G38" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L38">
-        <f>L37+1</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>24</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="8">
-        <v>520</v>
-      </c>
-      <c r="G39" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L39">
+      <c r="F39" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" t="e">
         <f>L38+1</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="8">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="F40" s="8">
-        <v>522</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H40" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="L40">
+        <v>16</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" t="e">
         <f>L39+1</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="10">
-        <v>628</v>
+        <v>252</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F41" s="10">
-        <v>527</v>
+        <v>1000</v>
       </c>
       <c r="G41" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H41" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" t="e">
         <f>L40+1</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="8">
-        <v>662</v>
+        <v>265</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F42" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" t="e">
+        <f>L41+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="10">
+        <v>627</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="L43" t="e">
+        <f>L42+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="8">
+        <v>826</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" t="e">
+        <f>L43+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="10">
+        <v>1112</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G45" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="11"/>
+      <c r="L45" t="e">
+        <f>L44+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="8">
+        <v>1319</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="8">
+        <v>497</v>
+      </c>
+      <c r="G46" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" t="e">
+        <f>L45+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M46" t="s">
+        <v>168</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="10">
+        <v>1373</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="10">
+        <v>503</v>
+      </c>
+      <c r="G47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="10" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" t="e">
+        <f>L46+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="8">
+        <v>476</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="8">
         <v>527</v>
       </c>
-      <c r="G42" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" s="8" t="s">
+      <c r="G48" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K48" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L42">
-        <f>L41+1</f>
+      <c r="L48" t="e">
+        <f>L47+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M48" t="s">
+        <v>169</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="10">
+        <v>479</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="10">
+        <v>527</v>
+      </c>
+      <c r="G49" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" t="e">
+        <f>L48+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M49" t="s">
+        <v>169</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="8">
+        <v>489</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G50" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" t="e">
+        <f>L49+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M50" t="s">
+        <v>170</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="10">
+        <v>614</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G51" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" t="e">
+        <f>L50+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M51" t="s">
+        <v>170</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="8">
+        <v>117</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
-        <v>476</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="8">
-        <v>527</v>
-      </c>
-      <c r="G43" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L43">
-        <f>L42+1</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
-        <v>479</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="10">
-        <v>527</v>
-      </c>
-      <c r="G44" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L44">
-        <f>L43+1</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
-        <v>164</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="8">
-        <v>529</v>
-      </c>
-      <c r="G45" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45">
-        <f>L44+1</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="10">
-        <v>368</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="10">
-        <v>529</v>
-      </c>
-      <c r="G46" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46">
-        <f>L45+1</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="10">
-        <v>64</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="10">
-        <v>536</v>
-      </c>
-      <c r="G47" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L47">
-        <f>L46+1</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="10">
-        <v>64</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="10">
-        <v>536</v>
-      </c>
-      <c r="G48" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L48">
-        <f>L47+1</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
-        <v>178</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="8">
-        <v>667</v>
-      </c>
-      <c r="G49" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L49">
-        <f>L48+1</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
-        <v>184</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="8">
-        <v>675</v>
-      </c>
-      <c r="G50" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L50">
-        <f>L49+1</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="10">
-        <v>586</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="10">
-        <v>694</v>
-      </c>
-      <c r="G51" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="11"/>
-      <c r="L51">
-        <f>L50+1</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
-        <v>287</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F52" s="8">
-        <v>1000</v>
+        <v>307</v>
       </c>
       <c r="G52" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H52" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K52" s="9"/>
-      <c r="L52">
+      <c r="L52" t="e">
         <f>L51+1</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M52" t="s">
+        <v>171</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="10">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>35</v>
@@ -10077,35 +10669,41 @@
         <v>13</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F53" s="10">
-        <v>1000</v>
+        <v>307</v>
       </c>
       <c r="G53" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H53" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K53" s="11"/>
-      <c r="L53">
+      <c r="L53" t="e">
         <f>L52+1</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M53" t="s">
+        <v>171</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="8">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>35</v>
@@ -10132,17 +10730,20 @@
         <v>16</v>
       </c>
       <c r="K54" s="9"/>
-      <c r="L54">
+      <c r="L54" t="e">
         <f>L53+1</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="10">
-        <v>252</v>
+        <v>457</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>35</v>
@@ -10169,17 +10770,20 @@
         <v>16</v>
       </c>
       <c r="K55" s="11"/>
-      <c r="L55">
+      <c r="L55" t="e">
         <f>L54+1</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="8">
-        <v>265</v>
+        <v>459</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>35</v>
@@ -10206,17 +10810,20 @@
         <v>16</v>
       </c>
       <c r="K56" s="9"/>
-      <c r="L56">
+      <c r="L56" t="e">
         <f>L55+1</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="10">
-        <v>627</v>
+        <v>464</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>35</v>
@@ -10243,17 +10850,20 @@
         <v>16</v>
       </c>
       <c r="K57" s="11"/>
-      <c r="L57">
+      <c r="L57" t="e">
         <f>L56+1</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="8">
-        <v>826</v>
+        <v>72</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>35</v>
@@ -10280,17 +10890,20 @@
         <v>16</v>
       </c>
       <c r="K58" s="9"/>
-      <c r="L58">
+      <c r="L58" t="e">
         <f>L57+1</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="10">
-        <v>1112</v>
+        <v>115</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>35</v>
@@ -10317,17 +10930,20 @@
         <v>16</v>
       </c>
       <c r="K59" s="11"/>
-      <c r="L59">
+      <c r="L59" t="e">
         <f>L58+1</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="8">
-        <v>489</v>
+        <v>116</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>35</v>
@@ -10354,17 +10970,20 @@
         <v>16</v>
       </c>
       <c r="K60" s="9"/>
-      <c r="L60">
+      <c r="L60" t="e">
         <f>L59+1</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="10">
-        <v>614</v>
+        <v>406</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>35</v>
@@ -10376,32 +10995,40 @@
         <v>36</v>
       </c>
       <c r="F61" s="10">
-        <v>1000</v>
+        <v>482</v>
       </c>
       <c r="G61" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H61" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61" s="11"/>
-      <c r="L61">
+        <v>48</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L61" t="e">
         <f>L60+1</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M61" t="s">
+        <v>172</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="8">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>35</v>
@@ -10413,32 +11040,40 @@
         <v>36</v>
       </c>
       <c r="F62" s="8">
-        <v>1000</v>
+        <v>485</v>
       </c>
       <c r="G62" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H62" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" s="9"/>
-      <c r="L62">
+        <v>52</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L62" t="e">
         <f>L61+1</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M62" t="s">
+        <v>173</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="10">
-        <v>457</v>
+        <v>173</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>35</v>
@@ -10450,32 +11085,40 @@
         <v>36</v>
       </c>
       <c r="F63" s="10">
-        <v>1000</v>
+        <v>501</v>
       </c>
       <c r="G63" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H63" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" s="11"/>
-      <c r="L63">
+        <v>56</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L63" t="e">
         <f>L62+1</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M63" t="s">
+        <v>174</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="8">
-        <v>459</v>
+        <v>177</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>35</v>
@@ -10487,32 +11130,40 @@
         <v>36</v>
       </c>
       <c r="F64" s="8">
-        <v>1000</v>
+        <v>501</v>
       </c>
       <c r="G64" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H64" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K64" s="9"/>
-      <c r="L64">
+        <v>56</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L64" t="e">
         <f>L63+1</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M64" t="s">
+        <v>174</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="10">
-        <v>464</v>
+        <v>288</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>35</v>
@@ -10524,32 +11175,40 @@
         <v>36</v>
       </c>
       <c r="F65" s="10">
-        <v>1000</v>
+        <v>501</v>
       </c>
       <c r="G65" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H65" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="11"/>
-      <c r="L65">
+        <v>56</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L65" t="e">
         <f>L64+1</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M65" t="s">
+        <v>174</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="8">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>35</v>
@@ -10576,17 +11235,20 @@
         <v>16</v>
       </c>
       <c r="K66" s="9"/>
-      <c r="L66">
+      <c r="L66" t="e">
         <f>L65+1</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="10">
-        <v>115</v>
+        <v>609</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>35</v>
@@ -10613,26 +11275,29 @@
         <v>16</v>
       </c>
       <c r="K67" s="11"/>
-      <c r="L67">
+      <c r="L67" t="e">
         <f>L66+1</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="8">
-        <v>116</v>
+        <v>625</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="F68" s="8">
         <v>1000</v>
@@ -10647,205 +11312,225 @@
         <v>15</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="K68" s="9"/>
-      <c r="L68">
+      <c r="L68" t="e">
         <f>L67+1</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
-        <v>169</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="8" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="10">
+        <v>1257</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="8" t="s">
+      <c r="D69" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G69" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K69" s="11"/>
+      <c r="L69" t="e">
+        <f>L68+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="8">
+        <v>1268</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G70" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" t="e">
+        <f>L69+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="10">
+        <v>92</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F71" s="10">
         <v>1000</v>
       </c>
-      <c r="G69" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="8" t="b">
+      <c r="G71" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="I69" s="8" t="s">
+      <c r="I71" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" s="9"/>
-      <c r="L69">
-        <f>L68+1</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="10">
-        <v>609</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="10" t="s">
+      <c r="J71" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K71" s="11"/>
+      <c r="L71" t="e">
+        <f>L70+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="8">
+        <v>126</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="10" t="s">
+      <c r="D72" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F72" s="8">
         <v>1000</v>
       </c>
-      <c r="G70" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="10" t="b">
+      <c r="G72" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="I70" s="10" t="s">
+      <c r="I72" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K70" s="11"/>
-      <c r="L70">
-        <f>L69+1</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
-        <v>262</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G71" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" s="8" t="s">
+      <c r="J72" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" t="e">
+        <f>L71+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M72" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K71" s="9"/>
-      <c r="L71">
-        <f>L70+1</f>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="10">
+        <v>53</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" s="10">
-        <v>227</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G72" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K72" s="11"/>
-      <c r="L72">
-        <f>L71+1</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
-        <v>218</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G73" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K73" s="9"/>
+      <c r="E73" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="10">
+        <v>258</v>
+      </c>
+      <c r="G73" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" s="10" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73" s="11"/>
       <c r="L73">
-        <f>L72+1</f>
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
+        <v>176</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="8">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
-        <v>625</v>
-      </c>
       <c r="B74" s="8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>35</v>
@@ -10857,32 +11542,40 @@
         <v>139</v>
       </c>
       <c r="F74" s="8">
-        <v>1000</v>
+        <v>516</v>
       </c>
       <c r="G74" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H74" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K74" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="L74">
         <f>L73+1</f>
+        <v>2</v>
+      </c>
+      <c r="M74" t="s">
+        <v>98</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="10">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="10">
-        <v>1257</v>
-      </c>
       <c r="B75" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>35</v>
@@ -10891,35 +11584,43 @@
         <v>70</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="F75" s="10">
-        <v>1000</v>
+        <v>516</v>
       </c>
       <c r="G75" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H75" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K75" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="L75">
         <f>L74+1</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="M75" t="s">
+        <v>98</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="8">
-        <v>1268</v>
+        <v>54</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>35</v>
@@ -10928,35 +11629,43 @@
         <v>70</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F76" s="8">
-        <v>1000</v>
+        <v>501</v>
       </c>
       <c r="G76" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H76" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K76" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="L76">
         <f>L75+1</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="M76" t="s">
+        <v>145</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="10">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>35</v>
@@ -10965,35 +11674,43 @@
         <v>70</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="F77" s="10">
-        <v>1000</v>
+        <v>485</v>
       </c>
       <c r="G77" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H77" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K77" s="11"/>
+        <v>150</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="L77">
         <f>L76+1</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="M77" t="s">
+        <v>149</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="1">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>35</v>
@@ -11002,27 +11719,35 @@
         <v>70</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="F78" s="1">
-        <v>1000</v>
+        <v>485</v>
       </c>
       <c r="G78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H78" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K78" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="L78">
         <f>L77+1</f>
-        <v>77</v>
+        <v>6</v>
+      </c>
+      <c r="M78" t="s">
+        <v>149</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/deduplicate_project/results/excel/bug_dataset.xlsx
+++ b/scripts/deduplicate_project/results/excel/bug_dataset.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="188">
   <si>
     <t xml:space="preserve">Count - variability</t>
   </si>
@@ -116,6 +116,9 @@
     <t xml:space="preserve">num_manual_features</t>
   </si>
   <si>
+    <t xml:space="preserve">Variability implementation</t>
+  </si>
+  <si>
     <t xml:space="preserve">asn1.c</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
     <t xml:space="preserve">CONFIG_BIGING_CRT</t>
   </si>
   <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
     <t xml:space="preserve">axtlswrap.c</t>
   </si>
   <si>
@@ -155,6 +161,9 @@
     <t xml:space="preserve">-CONFIG_AXTLSWRAP,</t>
   </si>
   <si>
+    <t xml:space="preserve">Makefile</t>
+  </si>
+  <si>
     <t xml:space="preserve">Logic error</t>
   </si>
   <si>
@@ -272,6 +281,9 @@
     <t xml:space="preserve">-CONFIG_NETCAT_LISTEN,</t>
   </si>
   <si>
+    <t xml:space="preserve">CONFIG_NETCAT (Makefile), CONFIG_NETCAT_LISTEN (Unsure)</t>
+  </si>
+  <si>
     <t xml:space="preserve">oneit.c</t>
   </si>
   <si>
@@ -323,6 +335,9 @@
     <t xml:space="preserve">CONFIG_TIME and CONFIG_TOYBOX_FLOAT</t>
   </si>
   <si>
+    <t xml:space="preserve">CONFIG_TIME (Makefile), CONFIG_TOYBOX_FLOAT (Dependency)</t>
+  </si>
+  <si>
     <t xml:space="preserve">timeout.c</t>
   </si>
   <si>
@@ -338,6 +353,9 @@
     <t xml:space="preserve">CONFIG_TIMEOUT and CONFIG_TOYBOX_FLOAT</t>
   </si>
   <si>
+    <t xml:space="preserve">CONFIG_TIMEOUT (Makefile), CONFIG_TOYBOX_FLOAT (Dependency)</t>
+  </si>
+  <si>
     <t xml:space="preserve">uudecode.c</t>
   </si>
   <si>
@@ -383,7 +401,10 @@
     <t xml:space="preserve">-CONFIG_KILL,-CONFIG_FEATURE_LESS_ASK_TERMINAL,CONFIG_FEATURE_TRACEROUTE_USE_ICMP,-CONFIG_PID_FILE_PATH,-CONFIG_SH_IS_NONE,CONFIG_FEATURE_TAB_COMPLETION,-CONFIG_DEBUG_PESSIMIZE,-CONFIG_FEATURE_INSTALL_LONG_OPTIONS,-CONFIG_LOGGER,CONFIG_WHICH,-CONFIG_FEATURE_PIDFILE,CONFIG_FEATURE_LESS_FLAGS,CONFIG_DHCPD_LEASES_FILE,-CONFIG_RAIDAUTORUN,-CONFIG_LSATTR,CONFIG_FEATURE_XARGS_SUPPORT_CONFIRMATION,-CONFIG_ASH_MAIL,-CONFIG_FEATURE_SEAMLESS_GZ,CONFIG_HUSH_ULIMIT,CONFIG_UBIUPDATEVOL,CONFIG_FEATURE_KILL_REMOVED,CONFIG_HUSH_INTERACTIVE,CONFIG_UNICODE_COMBINING_WCHARS,CONFIG_UUDECODE,CONFIG_HUSH_WAIT,CONFIG_FEATURE_EJECT_SCSI,-CONFIG_FEATURE_SH_STANDALONE,CONFIG_FEATURE_IPV6,CONFIG_ASH,-CONFIG_IPNEIGH,CONFIG_FEATURE_IFCONFIG_MEMSTART_IOADDR_IRQ,CONFIG_UNSHARE,-CONFIG_POWEROFF,CONFIG_OPENVT,-CONFIG_IONICE,CONFIG_SWITCH_ROOT,CONFIG_FEATURE_BRCTL_FANCY,-CONFIG_MPSTAT,CONFIG_FEATURE_PREFER_APPLETS,-CONFIG_FEATURE_HTTPD_PROXY,-CONFIG_ADJTIMEX,-CONFIG_AR,-CONFIG_CTTYHACK,CONFIG_WATCH,-CONFIG_FEATURE_VI_UNDO_QUEUE_MAX,CONFIG_FEATURE_INIT_QUIET,CONFIG_FEATURE_MAKEDEVS_TABLE,CONFIG_FEATURE_EDITING_MAX_LEN,CONFIG_FACTOR,-CONFIG_NC_EXTRA,CONFIG_LINUXRC,CONFIG_FEATURE_TOPMEM,CONFIG_IFCONFIG,-CONFIG_FEATURE_IP_LINK,-CONFIG_FEATURE_ROTATE_LOGFILE,CONFIG_FEATURE_MODUTILS_ALIAS,CONFIG_GROUPS,-CONFIG_SENDMAIL,CONFIG_FEATURE_MOUNT_LOOP,-CONFIG_MKDIR,-CONFIG_UNICODE_WIDE_WCHARS,CONFIG_FEATURE_TELNET_AUTOLOGIN,-CONFIG_HEXDUMP,-CONFIG_FEATURE_VI_UNDO,-CONFIG_FEATURE_SEAMLESS_XZ,-CONFIG_DEBUG_SANITIZE,CONFIG_FEATURE_TELNET_TTYPE,-CONFIG_UNICODE_BIDI_SUPPORT,CONFIG_UDHCPC_DEFAULT_SCRIPT,-CONFIG_MODINFO,-CONFIG_FEATURE_WGET_LONG_OPTIONS,-CONFIG_FEATURE_GREP_CONTEXT,CONFIG_FEATURE_DC_LIBM,-CONFIG_FEATURE_TR_EQUIV,-CONFIG_VOLNAME,-CONFIG_TFTP_DEBUG,CONFIG_FEATURE_MD5_SHA1_SUM_CHECK,-CONFIG_UNICODE_PRESERVE_BROKEN,CONFIG_FIRST_SYSTEM_ID,CONFIG_IPCS,-CONFIG_BUILD_LIBBUSYBOX,-CONFIG_ASH_JOB_CONTROL,CONFIG_FTPD,CONFIG_HUSH_BRACE_EXPANSION,-CONFIG_BASH_IS_HUSH,CONFIG_USE_PORTABLE_CODE,-CONFIG_FEATURE_REMOTE_LOG,CONFIG_FREERAMDISK,CONFIG_FEATURE_EDITING_SAVEHISTORY,-CONFIG_FEATURE_TASKSET_FANCY,CONFIG_FEATURE_FDISK_WRITABLE,CONFIG_FEATURE_BEEP_FREQ,-CONFIG_FEATURE_HTTPD_BASIC_AUTH,CONFIG_SETKEYCODES,CONFIG_UNICODE_SUPPORT,CONFIG_FEATURE_ACPID_COMPAT,-CONFIG_UNIX2DOS,-CONFIG_SEQ,-CONFIG_FEATURE_DD_THIRD_STATUS_LINE,CONFIG_FEATURE_MIME_CHARSET,CONFIG_FEATURE_FIND_XDEV,CONFIG_LSUSB,-CONFIG_FEATURE_TFTP_PUT,CONFIG_FEATURE_WTMP,-CONFIG_SHUF,CONFIG_PS,-CONFIG_FEATURE_PASSWD_WEAK_CHECK,CONFIG_SYNC,CONFIG_FEATURE_CLEAN_UP,-CONFIG_FEATURE_INIT_MODIFY_CMDLINE,-CONFIG_NBDCLIENT,-CONFIG_FEATURE_FIND_PERM,-CONFIG_FEATURE_FIND_MAXDEPTH,CONFIG_GZIP,CONFIG_CHRT,CONFIG_FEATURE_VI_YANKMARK,-CONFIG_FEATURE_TAR_FROM,-CONFIG_FEATURE_FIND_CONTEXT,-CONFIG_FEATURE_TFTP_PROGRESS_BAR,CONFIG_FEATURE_NON_POSIX_CP,CONFIG_FEATURE_UTMP,CONFIG_FTPGET,CONFIG_FEATURE_MDEV_LOAD_FIRMWARE,CONFIG_RMMOD,CONFIG_TAIL,-CONFIG_RUN_PARTS,CONFIG_LAST_SUPPORTED_WCHAR,CONFIG_NANDWRITE,CONFIG_HUSH_TICK,CONFIG_MORE,-CONFIG_FEATURE_MDEV_RENAME_REGEXP,CONFIG_DNSD,CONFIG_I2CDETECT,-CONFIG_CMP,-CONFIG_RUN_INIT,-CONFIG_UBIMKVOL,-CONFIG_FEATURE_CALL_TELINIT,-CONFIG_BUSYBOX,-CONFIG_GUNZIP,CONFIG_FEDORA_COMPAT,CONFIG_UNAME,-CONFIG_FEATURE_VOLUMEID_XFS,CONFIG_FBSPLASH,-CONFIG_TAC,CONFIG_LOAD_POLICY,CONFIG_FEATURE_MODPROBE_BLACKLIST,CONFIG_FSFREEZE,CONFIG_I2CGET,-CONFIG_FEATURE_SUID_CONFIG_QUIET,CONFIG_MV,CONFIG_PATCH,CONFIG_FEATURE_XARGS_SUPPORT_ZERO_TERM,CONFIG_FEATURE_FTPD_ACCEPT_BROKEN_LIST,CONFIG_PKILL,CONFIG_DOS2UNIX,CONFIG_CHAT,CONFIG_FEATURE_USE_SENDFILE,CONFIG_FEATURE_IP_ROUTE_DIR,-CONFIG_MKTEMP,-CONFIG_FEATURE_LS_FILETYPES,-CONFIG_FEATURE_SUID,CONFIG_IFUPDOWN_UDHCPC_CMD_OPTIONS,CONFIG_READLINK,CONFIG_DMALLOC,CONFIG_SETSEBOOL,-CONFIG_DF,-CONFIG_RUNLEVEL,-CONFIG_HUSH_CASE,-CONFIG_FEATURE_UDHCP_PORT,-CONFIG_FEATURE_CHAT_TTY_HIFI,CONFIG_FEATURE_UDHCPC6_RFC4833,CONFIG_FEATURE_IP_ROUTE,-CONFIG_FEATURE_BUFFERS_GO_ON_STACK,-CONFIG_LFS,CONFIG_FEATURE_SYSLOGD_READ_BUFFER_SIZE,CONFIG_SETLOGCONS,-CONFIG_SESTATUS,CONFIG_LOGIN_SCRIPTS,CONFIG_SCRIPT,-CONFIG_FEATURE_CHECK_TAINTED_MODULE,-CONFIG_RUNSVDIR,-CONFIG_FEATURE_MOUNT_LOOP_CREATE,-CONFIG_WALL,-CONFIG_IPADDR,CONFIG_FEATURE_AWK_GNU_EXTENSIONS,-CONFIG_FEATURE_SPLIT_FANCY,-CONFIG_FEATURE_LAST_FANCY,CONFIG_FEATURE_HDPARM_HDIO_UNREGISTER_HWIF,-CONFIG_BZCAT,-CONFIG_DEVFSD_FG_NP,-CONFIG_UNCOMPRESS,-CONFIG_FEATURE_WGET_STATUSBAR,-CONFIG_DIFF,CONFIG_UNZIP,-CONFIG_TRUNCATE,-CONFIG_FEATURE_PS_LONG,CONFIG_IPRULE,-CONFIG_FEATURE_TAR_OLDSUN_COMPATIBILITY,CONFIG_RESIZE,-CONFIG_YES,-CONFIG_FEATURE_VOLUMEID_HFS,-CONFIG_ARP,CONFIG_FEATURE_FIND_NEWER,CONFIG_FEATURE_BUFFERS_GO_IN_BSS,CONFIG_ADDUSER,-CONFIG_FEATURE_SUN_LABEL,CONFIG_PSTREE,CONFIG_BZIP2,CONFIG_FOLD,-CONFIG_FEATURE_LS_COLOR_IS_DEFAULT,CONFIG_TRACEROUTE6,CONFIG_FEATURE_SYSLOGD_DUP,CONFIG_FEATURE_HTTPD_CGI,CONFIG_LZCAT,-CONFIG_SHA1SUM,-CONFIG_FEATURE_AR_LONG_FILENAMES,-CONFIG_FEATURE_FANCY_TAIL,-CONFIG_HUSH_READ,-CONFIG_FSTRIM,-CONFIG_FEATURE_SORT_BIG,CONFIG_FEATURE_SH_MATH,CONFIG_LINUX32,-CONFIG_FGCONSOLE,-CONFIG_TEST2,-CONFIG_FEATURE_BOOTCHARTD_CONFIG_FILE,CONFIG_USLEEP,CONFIG_NICE,-CONFIG_RFKILL,-CONFIG_INSTALL_APPLET_DONT,CONFIG_FEATURE_IP_RULE,-CONFIG_VCONFIG,CONFIG_IFUP,CONFIG_ASH_GETOPTS,-CONFIG_FEATURE_TUNCTL_UG,-CONFIG_SETFATTR,CONFIG_FEATURE_MOUNT_FLAGS,CONFIG_FEATURE_XARGS_SUPPORT_REPL_STR,CONFIG_DEFAULT_DEPMOD_FILE,CONFIG_HTTPD,-CONFIG_TRACEROUTE,-CONFIG_HUSH_LOCAL,CONFIG_TEE,-CONFIG_TEST,-CONFIG_IFDOWN,CONFIG_NAMEIF,-CONFIG_FEATURE_VOLUMEID_UBIFS,CONFIG_UDHCPC,CONFIG_FEATURE_SWAPON_PRI,CONFIG_ID,CONFIG_FEATURE_FANCY_SLEEP,CONFIG_BEEP,CONFIG_FEATURE_LZMA_FAST,CONFIG_FEATURE_FIND_MTIME,-CONFIG_FEATURE_VI_WIN_RESIZE,-CONFIG_INSTALL_SH_APPLET_SCRIPT_WRAPPER,CONFIG_TFTP,CONFIG_FEATURE_CPIO_O,CONFIG_FDISK,-CONFIG_FEATURE_WGET_TIMEOUT,CONFIG_IPCALC,-CONFIG_BUNZIP2,CONFIG_MOUNT,CONFIG_FEATURE_RESIZE_PRINT,-CONFIG_HUSH_PRINTF,-CONFIG_FEATURE_VOLUMEID_BTRFS,CONFIG_HOSTID,CONFIG_EXPR,CONFIG_FEATURE_FIND_USER,CONFIG_FEATURE_DEVFS,CONFIG_FEATURE_RTMINMAX,CONFIG_DEFAULT_MODULES_DIR,-CONFIG_BLKDISCARD,-CONFIG_CP,-CONFIG_DHCPRELAY,-CONFIG_MICROCOM,-CONFIG_FEATURE_IP_TUNNEL,CONFIG_PARTPROBE,CONFIG_CHPST,-CONFIG_FEATURE_IFUPDOWN_MAPPING,CONFIG_FEATURE_HTTPD_ERROR_PAGES,CONFIG_FEATURE_FANCY_ECHO,CONFIG_FEATURE_CHAT_IMPLICIT_CR,-CONFIG_HUSH_FUNCTIONS,-CONFIG_RUNCON,CONFIG_SPLIT,-CONFIG_FEATURE_STAT_FILESYSTEM,-CONFIG_INSTALL_SH_APPLET_SYMLINK,-CONFIG_FEATURE_TELNETD_STANDALONE,CONFIG_FEATURE_SYSLOGD_CFG,CONFIG_ASH_INTERNAL_GLOB,-CONFIG_SED,-CONFIG_FEATURE_TFTP_BLOCKSIZE,CONFIG_HUSH_TRAP,-CONFIG_RESET,CONFIG_BBCONFIG,CONFIG_FEATURE_MOUNT_NFS,CONFIG_FEATURE_DATE_NANO,-CONFIG_FEATURE_FIND_PRUNE,CONFIG_FEATURE_SETFONT_TEXTUAL_MAP,CONFIG_SLATTACH,-CONFIG_TEST1,CONFIG_FEATURE_UNIX_LOCAL,-CONFIG_LSSCSI,CONFIG_FEATURE_READLINK_FOLLOW,CONFIG_WGET,-CONFIG_RX,-CONFIG_FEATURE_VOLUMEID_SYSV,CONFIG_FEATURE_IP_RARE_PROTOCOLS,CONFIG_FEATURE_FANCY_PING,CONFIG_ENVDIR,-CONFIG_LOADFONT,-CONFIG_FEATURE_VOLUMEID_ISO9660,-CONFIG_FEATURE_SETCONSOLE_LONG_OPTIONS,-CONFIG_FEATURE_MTAB_SUPPORT,CONFIG_NOHUP,CONFIG_HUSH_RANDOM_SUPPORT,-CONFIG_TLS,-CONFIG_FEATURE_TOP_DECIMALS,CONFIG_IP,CONFIG_FEATURE_VI_COLON,CONFIG_LSPCI,CONFIG_HEAD,-CONFIG_FEATURE_VOLUMEID_MINIX,CONFIG_MATCHPATHCON,-CONFIG_FEATURE_USE_BSS_TAIL,-CONFIG_UMOUNT,CONFIG_DIRNAME,CONFIG_FEATURE_SYNC_FANCY,CONFIG_FEATURE_INETD_SUPPORT_BUILTIN_CHARGEN,-CONFIG_CLEAR,-CONFIG_FEATURE_MOUNT_FAKE,-CONFIG_FEATURE_TAR_NOPRESERVE_TIME,CONFIG_LOCALE_SUPPORT,-CONFIG_PASTE,-CONFIG_FEATURE_NAMEIF_EXTENDED,CONFIG_TIMEOUT,-CONFIG_FEATURE_FIND_PRINT0,-CONFIG_FEATURE_NETSTAT_PRG,-CONFIG_FEATURE_HTTPD_RANGES,-CONFIG_STRINGS,CONFIG_FEATURE_REFORMIME_COMPAT,CONFIG_FEATURE_EDITING,-CONFIG_FEATURE_VI_SET,CONFIG_SULOGIN,CONFIG_RDATE,CONFIG_ASH_IDLE_TIMEOUT,CONFIG_FDFLUSH,-CONFIG_SUM,CONFIG_UDHCPC6,-CONFIG_CKSUM,CONFIG_HUSH_EXPORT_N,CONFIG_SUBST_WCHAR,-CONFIG_I2CSET,-CONFIG_FEATURE_EDITING_FANCY_PROMPT,-CONFIG_KILLALL5,CONFIG_FEATURE_USE_INITTAB,CONFIG_FEATURE_TAR_TO_COMMAND,CONFIG_SETSID,CONFIG_INSTALL_NO_USR,CONFIG_SVC,-CONFIG_FEATURE_TR_CLASSES,-CONFIG_UNXZ,-CONFIG_FEATURE_AR_CREATE,-CONFIG_FEATURE_LOGREAD_REDUCED_LOCKING,CONFIG_FEATURE_SECURETTY,CONFIG_FEATURE_INETD_SUPPORT_BUILTIN_TIME,-CONFIG_ASH_HELP,CONFIG_FEATURE_CROND_DIR,-CONFIG_FEATURE_VOLUMEID_EXT,CONFIG_FEATURE_MDEV_RENAME,CONFIG_FEATURE_UDHCP_8021Q,CONFIG_LINUX64,CONFIG_FEATURE_VI_SETOPTS,-CONFIG_EFENCE,CONFIG_FEATURE_TFTP_GET,CONFIG_FGREP,-CONFIG_FEATURE_VOLUMEID_SQUASHFS,-CONFIG_FEATURE_VERBOSE_USAGE,CONFIG_SMEMCAP,CONFIG_FEATURE_INSMOD_TRY_MMAP,CONFIG_FEATURE_IPC_SYSLOG_BUFFER_SIZE,-CONFIG_FEATURE_FIND_PATH,-CONFIG_FEATURE_DIFF_LONG_OPTIONS,CONFIG_FEATURE_VOLUMEID_LUKS,-CONFIG_FDFORMAT,-CONFIG_MKFIFO,CONFIG_DESKTOP,-CONFIG_UBIRMVOL,-CONFIG_FEATURE_SEAMLESS_BZ2,CONFIG_PIPE_PROGRESS,-CONFIG_RESTORECON,CONFIG_FEATURE_LS_TIMESTAMPS,CONFIG_UBIATTACH,-CONFIG_FEATURE_AWK_LIBM,CONFIG_ASH_TEST,CONFIG_FEATURE_FIND_SIZE,CONFIG_FEATURE_SETPRIV_CAPABILITIES,-CONFIG_NSENTER,CONFIG_ENV,CONFIG_STAT,-CONFIG_LPD,CONFIG_VERBOSE_RESOLUTION_ERRORS,CONFIG_FEATURE_BRCTL_SHOW,CONFIG_TELNET,-CONFIG_IPTUNNEL,-CONFIG_FEATURE_SU_SYSLOG,-CONFIG_UPTIME,CONFIG_LESS,-CONFIG_TELINIT_PATH,-CONFIG_ASH_BASH_COMPAT,-CONFIG_FEATURE_IFUPDOWN_IPV4,CONFIG_HALT,CONFIG_LS,CONFIG_START_STOP_DAEMON,CONFIG_DUMPKMAP,-CONFIG_HUSH_UNSET,-CONFIG_PRINTF,CONFIG_FEATURE_MOUNT_FSTAB,-CONFIG_LOGNAME,-CONFIG_FEATURE_LS_RECURSIVE,CONFIG_FEATURE_POWERTOP_INTERACTIVE,CONFIG_BLKID,CONFIG_PGREP,CONFIG_HUSH_JOB,-CONFIG_FEATURE_TELNET_WIDTH,-CONFIG_MAN,CONFIG_MKPASSWD,CONFIG_SHA512SUM,CONFIG_BB_SYSCTL,CONFIG_SETFONT,CONFIG_PWDX,CONFIG_FEATURE_SETFILES_CHECK_OPTION,CONFIG_SHRED,-CONFIG_PASSWD,CONFIG_FEATURE_ALLOW_EXEC,-CONFIG_ED,CONFIG_CAL,CONFIG_UDHCP_DEBUG,CONFIG_FEATURE_HWIB,-CONFIG_FEATURE_UDHCPD_WRITE_LEASES_EARLY,-CONFIG_FEATURE_XARGS_SUPPORT_QUOTES,CONFIG_FEATURE_XARGS_SUPPORT_TERMOPT,-CONFIG_INOTIFYD,-CONFIG_RESUME,CONFIG_FEATURE_SWAPONOFF_LABEL,-CONFIG_PING6,-CONFIG_NC,-CONFIG_USERS,CONFIG_FEATURE_LS_FOLLOWLINKS,-CONFIG_FEATURE_IP_NEIGH,-CONFIG_FEATURE_TAR_GNU_EXTENSIONS,-CONFIG_FAKEIDENTD,-CONFIG_WATCHDOG,CONFIG_UEVENT,CONFIG_MKDOSFS,-CONFIG_FEATURE_IFUPDOWN_IP,CONFIG_CRONTAB,-CONFIG_TASKSET,-CONFIG_FEATURE_DATE_COMPAT,CONFIG_FLASH_LOCK,CONFIG_HUSH_TIMES,-CONFIG_FEATURE_VI_USE_SIGNALS,CONFIG_BRCTL,CONFIG_LAST,CONFIG_FEATURE_HTTPD_GZIP,-CONFIG_FEATURE_SH_MATH_64,CONFIG_WC,CONFIG_FEATURE_TOP_SMP_PROCESS,-CONFIG_FEATURE_TAR_CREATE,CONFIG_GETOPT,-CONFIG_MKE2FS,-CONFIG_PAM,-CONFIG_FEATURE_CATN,CONFIG_HUSH_MODE_X,CONFIG_FEATURE_STAT_FORMAT,-CONFIG_MKFS_REISER,CONFIG_FEATURE_LS_SORTFILES,CONFIG_SWAPON,CONFIG_FEATURE_HDPARM_GET_IDENTITY,CONFIG_CHMOD,-CONFIG_SV_DEFAULT_SERVICE_DIR,-CONFIG_FEATURE_POPMAILDIR_DELIVERY,CONFIG_UNIT_TEST,-CONFIG_USE_BB_CRYPT,-CONFIG_FEATURE_MAKEDEVS_LEAF,-CONFIG_TFTPD,CONFIG_REALPATH,-CONFIG_FEATURE_FIND_LINKS,-CONFIG_FEATURE_FIND_REGEX,-CONFIG_FEATURE_WC_LARGE,CONFIG_FEATURE_EDITING_HISTORY,CONFIG_UNIQ,-CONFIG_WHO,CONFIG_HUSH_BASH_COMPAT,CONFIG_FEATURE_PS_TIME,CONFIG_FEATURE_FIND_DELETE,CONFIG_HWCLOCK,-CONFIG_FEATURE_KLOGD_KLOGCTL,CONFIG_FEATURE_COMPRESS_BBCONFIG,-CONFIG_FEATURE_LESS_WINCH,-CONFIG_DMESG,-CONFIG_FEATURE_UNZIP_BZIP2,CONFIG_FEATURE_MDEV_EXEC,-CONFIG_MT,CONFIG_MKNOD,-CONFIG_MOUNTPOINT,CONFIG_SETCONSOLE,CONFIG_KILLALL,CONFIG_FEATURE_LSMOD_PRETTY_2_6_OUTPUT,-CONFIG_FEATURE_VI_SEARCH,CONFIG_FEATURE_TAR_LONG_OPTIONS,-CONFIG_FEATURE_RUNSVDIR_LOG,CONFIG_SLEEP,CONFIG_FEATURE_INIT_COREDUMPS,CONFIG_FEATURE_EDITING_SAVE_ON_EXIT,-CONFIG_FEATURE_IFUPDOWN_EXTERNAL_DHCP,-CONFIG_UBIDETACH,CONFIG_FEATURE_GETOPT_LONG,CONFIG_FEATURE_FIND_TYPE,-CONFIG_FEATURE_START_STOP_DAEMON_LONG_OPTIONS,-CONFIG_FEATURE_LOADFONT_PSF2,CONFIG_LOADKMAP,CONFIG_INSTALL,CONFIG_NC_110_COMPAT,-CONFIG_W,CONFIG_FUSER,-CONFIG_FEATURE_MOUNT_LABEL,CONFIG_ASH_ECHO,-CONFIG_FEATURE_INSTALLER,CONFIG_HUSH_KILL,-CONFIG_FEATURE_PRESERVE_HARDLINKS,-CONFIG_BASE64,-CONFIG_FEATURE_FBSET_FANCY,-CONFIG_FEATURE_VOLUMEID_EXFAT,-CONFIG_FALLOCATE,-CONFIG_CHPASSWD,-CONFIG_VLOCK,CONFIG_FEATURE_SH_HISTFILESIZE,CONFIG_KLOGD,CONFIG_HUSH_EXPORT,-CONFIG_FEATURE_TELNETD_INETD_WAIT,CONFIG_HD,-CONFIG_FEATURE_UNZIP_LZMA,-CONFIG_FEATURE_TAR_AUTODETECT,CONFIG_FEATURE_MOUNT_HELPERS,CONFIG_ETHER_WAKE,CONFIG_INSMOD,-CONFIG_FEATURE_WGET_AUTHENTICATION,-CONFIG_MKSWAP,CONFIG_KBD_MODE,-CONFIG_RENICE,-CONFIG_CHATTR,-CONFIG_NETSTAT,CONFIG_FEATURE_HTTPD_SET_REMOTE_PORT_TO_ENV,-CONFIG_OD,-CONFIG_FEATURE_VI_ASK_TERMINAL,CONFIG_FEATURE_CROND_CALL_SENDMAIL,CONFIG_FEATURE_VI_8BIT,-CONFIG_REMOVE_SHELL,CONFIG_CONSPY,-CONFIG_INSTALL_SH_APPLET_HARDLINK,-CONFIG_FEATURE_USERNAME_COMPLETION,CONFIG_FEATURE_UDHCPC_SANITIZEOPT,-CONFIG_FEATURE_CMDLINE_MODULE_OPTIONS,-CONFIG_RTCWAKE,CONFIG_TTY,CONFIG_FEATURE_LS_USERNAME,CONFIG_FEATURE_BOOTCHARTD_BLOATED_HEADER,CONFIG_DU,CONFIG_CROND,-CONFIG_PWD,CONFIG_INCLUDE_SUSv2,-CONFIG_FEATURE_DU_DEFAULT_BLOCKSIZE_1K,-CONFIG_NUKE,-CONFIG_EGREP,CONFIG_DEVMEM,CONFIG_BOOTCHARTD,-CONFIG_COMM,CONFIG_HDPARM,-CONFIG_FEATURE_INETD_RPC,CONFIG_NC_SERVER,-CONFIG_FEATURE_VOLUMEID_BCACHE,CONFIG_UNLINK,CONFIG_NETCAT,CONFIG_FEATURE_HTTPD_ENCODE_URL_STR,CONFIG_FEATURE_WGET_OPENSSL,-CONFIG_ASH_RANDOM_SUPPORT,CONFIG_HEXEDIT,-CONFIG_RPM,-CONFIG_FEATURE_TOUCH_NODEREF,-CONFIG_FEATURE_CP_LONG_OPTIONS,-CONFIG_TUNE2FS,CONFIG_FEATURE_IFCONFIG_STATUS,CONFIG_FEATURE_SGI_LABEL,CONFIG_FEATURE_TEST_64,-CONFIG_SHA256SUM,-CONFIG_CHVT,-CONFIG_FEATURE_HTTPD_AUTH_MD5,CONFIG_FLOCK,-CONFIG_FEATURE_MOUNT_CIFS,CONFIG_FEATURE_MINIX2,CONFIG_FEATURE_DEVPTS,CONFIG_FEATURE_FDISK_ADVANCED,CONFIG_XARGS,-CONFIG_FEATURE_LESS_BRACKETS,CONFIG_DELUSER,CONFIG_LSMOD,-CONFIG_FEATURE_EDITING_ASK_TERMINAL,CONFIG_DC,CONFIG_FBSET,-CONFIG_SHA3SUM,-CONFIG_FEATURE_LESS_DASHCMD,-CONFIG_INIT,CONFIG_FSCK_MINIX,-CONFIG_FEATURE_TOUCH_SUSV3,CONFIG_FEATURE_UDHCP_RFC3397,CONFIG_FEATURE_VOLUMEID_NILFS,CONFIG_MKFS_MINIX,-CONFIG_DEALLOCVT,-CONFIG_FEATURE_TOP_SMP_CPU,-CONFIG_FEATURE_HTTPD_SETUID,CONFIG_UBIRENAME,-CONFIG_FEATURE_VOLUMEID_LINUXSWAP,-CONFIG_FEATURE_DEL_USER_FROM_GROUP,-CONFIG_FEATURE_UPTIME_UTMP_SUPPORT,-CONFIG_HUSH,CONFIG_BASENAME,CONFIG_FEATURE_COMPRESS_USAGE,-CONFIG_FEATURE_CHECK_NAMES,CONFIG_FEATURE_SETPRIV_CAPABILITY_NAMES,CONFIG_RM,CONFIG_LN,-CONFIG_FEATURE_DEFAULT_PASSWD_ALGO,-CONFIG_FEATURE_VOLUMEID_NTFS,-CONFIG_FEATURE_NTPD_SERVER,CONFIG_FEATURE_FIND_PAREN,-CONFIG_FEATURE_LESS_LINENUMS,CONFIG_FEATURE_LOADFONT_RAW,CONFIG_FEATURE_EDITING_VI,CONFIG_SHOWKEY,-CONFIG_HUSH_SAVEHISTORY,-CONFIG_HUSH_TEST,CONFIG_FEATURE_GPT_LABEL,CONFIG_FEATURE_INIT_SCTTY,CONFIG_MODPROBE,-CONFIG_FEATURE_FTPD_WRITE,-CONFIG_CUT,-CONFIG_XXD,-CONFIG_FEATURE_RUN_PARTS_FANCY,CONFIG_FEATURE_CHECK_UNICODE_IN_ENV,CONFIG_FDISK_SUPPORT_LARGE_DISKS,-CONFIG_FEATURE_WGET_HTTPS,-CONFIG_HUSH_SET,-CONFIG_FEATURE_FIND_EXEC,CONFIG_XZCAT,-CONFIG_SH_IS_ASH,CONFIG_MINIPS,CONFIG_FEATURE_MOUNT_VERBOSE,-CONFIG_HUSH_LOOPS,-CONFIG_LPR,CONFIG_SETUIDGID,CONFIG_LOGIN_SESSION_AS_CHILD,-CONFIG_FEATURE_FANCY_HEAD,CONFIG_FEATURE_TAR_UNAME_GNAME,-CONFIG_FEATURE_NETSTAT_WIDE,-CONFIG_FEATURE_LESS_REGEXP,-CONFIG_MD5SUM,-CONFIG_FEATURE_SEAMLESS_LZMA,CONFIG_UNAME_OSNAME,-CONFIG_FEATURE_GZIP_LONG_OPTIONS,-CONFIG_FALSE,CONFIG_TAR,CONFIG_LOGIN,-CONFIG_NANDDUMP,CONFIG_MESG,-CONFIG_SCRIPTREPLAY,CONFIG_GETSEBOOL,CONFIG_NMETER,-CONFIG_IPLINK,CONFIG_SHOW_USAGE,CONFIG_FEATURE_PIDOF_SINGLE,CONFIG_FEATURE_IP_ADDRESS,CONFIG_MAKEDEVS,CONFIG_FEATURE_SHADOWPASSWDS,-CONFIG_FEATURE_VOLUMEID_LINUXRAID,CONFIG_PRINTENV,CONFIG_FEATURE_GZIP_DECOMPRESS,CONFIG_SETARCH,-CONFIG_DELGROUP,-CONFIG_FEATURE_IFCONFIG_SLIP,CONFIG_PING,CONFIG_SH_IS_HUSH,-CONFIG_IOSTAT,-CONFIG_FEATURE_TOP_CPU_GLOBAL_PERCENTS,-CONFIG_FEATURE_CHAT_SEND_ESCAPES,CONFIG_FEATURE_HWCLOCK_ADJTIME_FHS,-CONFIG_FEATURE_DD_STATUS,CONFIG_FEATURE_CHAT_CLR_ABORT,CONFIG_FEATURE_LESS_TRUNCATE,CONFIG_FEATURE_NOLOGIN,-CONFIG_LOGREAD,-CONFIG_UNICODE_USING_LOCALE,-CONFIG_FEATURE_SHARED_BUSYBOX,CONFIG_FEATURE_LESS_MAXLINES,-CONFIG_FEATURE_UNZIP_CDF,CONFIG_DEVFSD_MODLOAD,CONFIG_DEVFSD,-CONFIG_HUSH_ECHO,-CONFIG_FEATURE_NTPD_CONF,-CONFIG_HUSH_HELP,CONFIG_INIT_TERMINAL_TYPE,CONFIG_SELINUXENABLED,-CONFIG_SSL_CLIENT,-CONFIG_FSYNC,-CONFIG_IOCTL_HEX2STR_ERROR,-CONFIG_DNSDOMAINNAME,-CONFIG_FEATURE_RUN_PARTS_LONG_OPTIONS,-CONFIG_HUSH_UMASK,CONFIG_ECHO,CONFIG_ZCIP,-CONFIG_FEATURE_XARGS_SUPPORT_ARGS_FILE,-CONFIG_TELNETD,CONFIG_FLASHCP,CONFIG_FEATURE_LESS_MARKS,CONFIG_FEATURE_MDEV_CONF,-CONFIG_TRUE,CONFIG_IFUPDOWN_IFSTATE_PATH,CONFIG_RDEV,CONFIG_CPIO,CONFIG_FSCK,CONFIG_FEATURE_ETC_NETWORKS,CONFIG_FEATURE_SWAPON_DISCARD,-CONFIG_DEPMOD,CONFIG_CHGRP,CONFIG_MDEV,CONFIG_USE_BB_PWD_GRP,-CONFIG_MKFS_VFAT,CONFIG_TR,CONFIG_FEATURE_TAR_SELINUX,CONFIG_FEATURE_START_STOP_DAEMON_FANCY,CONFIG_FEATURE_UDHCPD_BASE_IP_ON_MAC,CONFIG_LAST_ID,-CONFIG_EXPAND,-CONFIG_UBIRSVOL,CONFIG_ENVUIDGID,-CONFIG_FEATURE_SETPRIV_DUMP,CONFIG_CAT,CONFIG_FEATURE_DD_IBS_OBS,-CONFIG_FEATURE_FBSET_READMODE,-CONFIG_FEATURE_HTTPD_CONFIG_WITH_SCRIPT_INTERPR,-CONFIG_SWAPOFF,-CONFIG_FEATURE_SEAMLESS_Z,CONFIG_ADDGROUP,-CONFIG_XZ,CONFIG_DD,-CONFIG_FEATURE_FIND_GROUP,CONFIG_RMDIR,-CONFIG_FATATTR,CONFIG_FEATURE_CROND_D,-CONFIG_LPQ,CONFIG_FEATURE_BEEP_LENGTH_MS,-CONFIG_MODPROBE_SMALL,-CONFIG_FEATURE_UDHCPC_ARPING,CONFIG_FEATURE_REVERSE_SEARCH,-CONFIG_FEATURE_INETD_SUPPORT_BUILTIN_DISCARD,CONFIG_GREP,CONFIG_FEATURE_GUNZIP_LONG_OPTIONS,CONFIG_PSCAN,-CONFIG_INSTALL_APPLET_HARDLINKS,-CONFIG_I2CDUMP,-CONFIG_SOFTLIMIT,-CONFIG_FEATURE_DD_SIGNAL_HANDLING,-CONFIG_BLOCKDEV,-CONFIG_FEATURE_UMOUNT_ALL,CONFIG_UUENCODE,CONFIG_MKFS_EXT2,-CONFIG_UNLZOP,-CONFIG_TUNCTL,CONFIG_FEATURE_CPIO_P,-CONFIG_FEATURE_PIDOF_OMIT,CONFIG_FEATURE_OSF_LABEL,-CONFIG_INSTALL_APPLET_SCRIPT_WRAPPERS,CONFIG_LAST_SYSTEM_ID,-CONFIG_FEATURE_CHAT_SWALLOW_OPTS,CONFIG_FEATURE_VOLUMEID_F2FS,CONFIG_FEATURE_FAST_TOP,-CONFIG_FEATURE_VOLUMEID_FAT,-CONFIG_NSLOOKUP,CONFIG_FEATURE_FTPGETPUT_LONG_OPTIONS,-CONFIG_FEATURE_INDIVIDUAL,-CONFIG_FEATURE_XARGS_SUPPORT_PARALLEL,CONFIG_FEATURE_PS_ADDITIONAL_COLUMNS,CONFIG_PIDOF,CONFIG_CHOWN,CONFIG_CHROOT,-CONFIG_FEATURE_CATV,-CONFIG_CRYPTPW,-CONFIG_FEATURE_FIND_MMIN,-CONFIG_FEATURE_SU_BLANK_PW_NEEDS_SECURE_TTY,-CONFIG_FLASH_ERASEALL,-CONFIG_ADD_SHELL,-CONFIG_DPKG_DEB,-CONFIG_FEATURE_FIND_EXEC_PLUS,CONFIG_FEATURE_CROND_SPECIAL_TIMES,-CONFIG_FEATURE_VI_REGEX_SEARCH,CONFIG_FEATURE_GZIP_LEVELS,-CONFIG_FEATURE_SKIP_ROOTFS,CONFIG_FEATURE_SU_CHECKS_SHELLS,CONFIG_NL,CONFIG_FEATURE_IFCONFIG_BROADCAST_PLUS,CONFIG_SETPRIV,-CONFIG_DPKG,-CONFIG_FEATURE_HDPARM_HDIO_SCAN_HWIF,-CONFIG_DEVFSD_VERBOSE,CONFIG_PIVOT_ROOT,CONFIG_ZCAT,-CONFIG_FEATURE_IFUPDOWN_IPV6,CONFIG_FEATURE_ADDUSER_TO_GROUP,CONFIG_FEATURE_MODUTILS_SYMBOLS,-CONFIG_FEATURE_LS_COLOR,-CONFIG_PMAP,CONFIG_INSTALL_APPLET_SYMLINKS,CONFIG_SU,CONFIG_RPM2CPIO,-CONFIG_FEATURE_HDPARM_HDIO_GETSET_DMA,-CONFIG_UNICODE_NEUTRAL_TABLE,-CONFIG_MONOTONIC_SYSCALL,CONFIG_FEATURE_MOUNT_OTHERTAB,CONFIG_DUMPLEASES,-CONFIG_FEATURE_TRACEROUTE_VERBOSE,-CONFIG_FEATURE_FTPD_AUTHENTICATION,CONFIG_FEATURE_MESG_ENABLE_ONLY_GROUP,-CONFIG_RUNSV,-CONFIG_FEATURE_AIX_LABEL,-CONFIG_HOSTNAME,-CONFIG_WHOIS,CONFIG_FEATURE_SH_READ_FRAC,-CONFIG_NPROC,-CONFIG_ROUTE,CONFIG_USE_BB_SHADOW,CONFIG_FEATURE_INETD_SUPPORT_BUILTIN_DAYTIME,-CONFIG_FEATURE_VOLUMEID_UDF,-CONFIG_FEATURE_INETD_SUPPORT_BUILTIN_ECHO,CONFIG_FEATURE_IPC_SYSLOG,-CONFIG_FEATURE_HDPARM_HDIO_TRISTATE_HWIF,-CONFIG_FEATURE_TOP_CPU_USAGE_PERCENTAGE,CONFIG_LSOF,CONFIG_LOSETUP,CONFIG_LZOP,-CONFIG_FEATURE_VI_DOT_CMD,-CONFIG_FEATURE_VOLUMEID_REISERFS,-CONFIG_FEATURE_MKSWAP_UUID,-CONFIG_FEATURE_SH_EXTRA_QUIET,-CONFIG_FEATURE_BUFFERS_USE_MALLOC,-CONFIG_MAKEMIME,-CONFIG_FEATURE_DATE_ISOFMT,CONFIG_BASH_IS_NONE,-CONFIG_REV,CONFIG_UDHCPC_SLACK_FOR_BUGGY_SERVERS,-CONFIG_FEATURE_CHAT_VAR_ABORT_LEN,-CONFIG_BB_ARCH,CONFIG_HUSH_GETOPTS,CONFIG_FEATURE_INIT_SYSLOG,CONFIG_IPCRM,-CONFIG_FEATURE_SUID_CONFIG,CONFIG_AWK,-CONFIG_LINK,CONFIG_SETFILES,-CONFIG_EXPR_MATH_SUPPORT_64,-CONFIG_FEATURE_UNZIP_XZ,-CONFIG_USE_BB_CRYPT_SHA,-CONFIG_FEATURE_VI_READONLY,-CONFIG_FEATURE_VI_UNDO_QUEUE,-CONFIG_FEATURE_VERBOSE,CONFIG_FINDFS,-CONFIG_FEATURE_DIFF_DIR,CONFIG_DATE,CONFIG_REFORMIME,-CONFIG_WHOAMI,-CONFIG_HUSH_READONLY,CONFIG_INETD,-CONFIG_FEATURE_HEXDUMP_REVERSE,CONFIG_FEATURE_IFCONFIG_HW,CONFIG_FEATURE_PS_UNUSUAL_SYSTEMS,CONFIG_FEATURE_KMSG_SYSLOG,CONFIG_GETTY,-CONFIG_FEATURE_DMESG_PRETTY,-CONFIG_ASH_EXPAND_PRMT,-CONFIG_LZMA,-CONFIG_FEATURE_SH_NOFORK,CONFIG_FTPPUT,-CONFIG_HUSH_MEMLEAK,CONFIG_SETENFORCE,CONFIG_FEATURE_BZIP2_DECOMPRESS,-CONFIG_FEATURE_FIND_NOT,-CONFIG_FEATURE_VOLUMEID_ROMFS,-CONFIG_SV,-CONFIG_FEATURE_FIND_INUM,-CONFIG_FEATURE_BLKID_TYPE,-CONFIG_ASH_OPTIMIZE_FOR_SIZE,CONFIG_POWERTOP,-CONFIG_IFPLUGD,-CONFIG_FEATURE_IPCALC_LONG_OPTIONS,CONFIG_NTPD,CONFIG_DEBUG,CONFIG_TOP,-CONFIG_IFENSLAVE,-CONFIG_FLASH_UNLOCK,CONFIG_ASH_CMDCMD,-CONFIG_UNEXPAND,-CONFIG_FEATURE_PS_WIDE,CONFIG_EJECT,-CONFIG_PIE,-CONFIG_FEATURE_TOP_INTERACTIVE,CONFIG_UNLZMA,CONFIG_SVLOGD,CONFIG_FEATURE_FIND_DEPTH,CONFIG_FEATURE_TEE_USE_BLOCK_IO,-CONFIG_BASH_IS_ASH,CONFIG_EXTRA_COMPAT,CONFIG_FEATURE_TAR_OLDGNU_COMPATIBILITY,CONFIG_ASH_PRINTF,-CONFIG_CHCON,-CONFIG_FEATURE_MODPROBE_SMALL_CHECK_ALREADY_LOADED,CONFIG_POPMAILDIR,CONFIG_SORT,-CONFIG_IPROUTE,-CONFIG_LZOPCAT,-CONFIG_READPROFILE,-CONFIG_TCPSVD,-CONFIG_FEATURE_LS_WIDTH,-CONFIG_FEATURE_HUMAN_READABLE,-CONFIG_FEATURE_UDHCPC6_RFC3646,CONFIG_TOUCH,-CONFIG_REBOOT,CONFIG_FEATURE_UDHCPC6_RFC4704,CONFIG_HUSH_TYPE,-CONFIG_HUSH_IF,CONFIG_UDHCPD,-CONFIG_TIME,-CONFIG_FEATURE_VOLUMEID_OCFS2,-CONFIG_FEATURE_VERBOSE_CP_MESSAGE,CONFIG_FEATURE_VOLUMEID_JFS,-CONFIG_STTY,-CONFIG_TTYSIZE,-CONFIG_READAHEAD,CONFIG_SYSLOGD,-CONFIG_FEATURE_CHOWN_LONG_OPTIONS,-CONFIG_NO_DEBUG_LIB,-CONFIG_FEATURE_VOLUMEID_CRAMFS,CONFIG_UDPSVD,CONFIG_SETSERIAL,-CONFIG_ASH_ALIAS,-CONFIG_FEATURE_SHOW_THREADS,-CONFIG_GETENFORCE,-CONFIG_FREE,-CONFIG_FEATURE_HDPARM_HDIO_DRIVE_RESET,-CONFIG_FEATURE_IPCALC_FANCY,CONFIG_FEATURE_FLOAT_SLEEP,-CONFIG_FEATURE_DF_FANCY,CONFIG_FEATURE_PREFER_IPV4_ADDRESS,CONFIG_LZOP_COMPR_HIGH,-CONFIG_ARPING,CONFIG_FEATURE_CHAT_NOFAIL,CONFIG_ACPID,</t>
   </si>
   <si>
-    <t xml:space="preserve">CONFIG_FDISK, CONFIG_FEATURE_FDISK_WRITABLE, CONFIG_FEATURE_SGI_LABEL</t>
+    <t xml:space="preserve">CONFIG_FDISK and CONFIG_FEATURE_FDISK_WRITABLE and CONFIG_FEATURE_SGI_LABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIG_FDISK (Source, Dependency), CONFIG_FEATURE_FDISK_WRITABLE (Dependency), CONFIG_FEATURE_SGI_LABEL (Source)</t>
   </si>
   <si>
     <t xml:space="preserve">read_key.c</t>
@@ -446,16 +467,22 @@
     <t xml:space="preserve">-CONFIG_BIGINT_SLIDING_WINDOW,</t>
   </si>
   <si>
-    <t xml:space="preserve">BIGINT_SLIDING_WINDOW</t>
+    <t xml:space="preserve">-CONFIG_BIGINT_SLIDING_WINDOW</t>
   </si>
   <si>
     <t xml:space="preserve">httpd/axhttpd.c</t>
   </si>
   <si>
-    <t xml:space="preserve">AXHTTPD,HTTP_HAS_CGI,(!CONFIG_PLATFORM_WIN32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXHTTPD</t>
+    <t xml:space="preserve">CONFIG_AXHTTPD and CONFIG_HTTP_HAS_CGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXHTTPD (Makefile and Dependency), CONFIG_TOYBOX_FLOAT (Source)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXHTTPD (Makefile and Dependency), CONFIG_HTTP_HAS_CGI (Source)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIG_AXHTTPD</t>
   </si>
   <si>
     <t xml:space="preserve">httpd/htpasswd.c</t>
@@ -467,7 +494,10 @@
     <t xml:space="preserve">CONFIG_HTTP_HAS_AUTHORIZATION,-CONFIG_C_SAMPLES,</t>
   </si>
   <si>
-    <t xml:space="preserve">AXHTTPD, HTTP_HAS_AUTHORIZATION,(-CONFIG_C_SAMPLES)</t>
+    <t xml:space="preserve">CONFIG_AXHTTPD and CONFIG_HTTP_HAS_AUTHORIZATION and -CONFIG_CONFIG_C_SAMPLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIG_AXHTTPD (Makefile and Dependency), CONFIG_HTTP_HAS_AUTHORIZATION (Makefile), -CONFIG_C_SAMPLES (Unsure)</t>
   </si>
   <si>
     <t xml:space="preserve">MEMORY_LEAK</t>
@@ -488,9 +518,6 @@
     <t xml:space="preserve">-CONFIG_SSL_HAS_PEM,</t>
   </si>
   <si>
-    <t xml:space="preserve">SSL_HAS_PEM</t>
-  </si>
-  <si>
     <t xml:space="preserve">ssl/openssl.c</t>
   </si>
   <si>
@@ -503,9 +530,6 @@
     <t xml:space="preserve">-CONFIG_OPENSSL_COMPATIBLE,</t>
   </si>
   <si>
-    <t xml:space="preserve">OPENSSL_COMPATIBLE</t>
-  </si>
-  <si>
     <t xml:space="preserve">ssl/p12.c</t>
   </si>
   <si>
@@ -518,9 +542,6 @@
     <t xml:space="preserve">-CONFIG_SSL_USE_PKCS12,</t>
   </si>
   <si>
-    <t xml:space="preserve">SSL_USE_PKCS12</t>
-  </si>
-  <si>
     <t xml:space="preserve">ssl/tls1.c</t>
   </si>
   <si>
@@ -540,6 +561,9 @@
   </si>
   <si>
     <t xml:space="preserve">CONFIG_MOUNTPOINT, -CONFIG_TOYBOX_FREE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIG_MOUNTPOINT (Makefile), -CONFIG_TOYBOX_FREE (Source)</t>
   </si>
   <si>
     <t xml:space="preserve">toys/other/oneit.c</t>
@@ -576,7 +600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -624,6 +648,11 @@
       <sz val="14"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1096,19 +1125,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1247,6 +1276,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1600,6 +1630,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1953,6 +1984,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3361,11 +3393,11 @@
         </c:ser>
         <c:gapWidth val="10"/>
         <c:overlap val="100"/>
-        <c:axId val="16307653"/>
-        <c:axId val="39723983"/>
+        <c:axId val="52853021"/>
+        <c:axId val="24854954"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="16307653"/>
+        <c:axId val="52853021"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,14 +3471,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39723983"/>
+        <c:crossAx val="24854954"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39723983"/>
+        <c:axId val="24854954"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3527,7 +3559,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16307653"/>
+        <c:crossAx val="52853021"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3576,9 +3608,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>736200</xdr:colOff>
+      <xdr:colOff>735840</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3586,8 +3618,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5028840" y="1295280"/>
-        <a:ext cx="11315520" cy="4571640"/>
+        <a:off x="5422680" y="1295280"/>
+        <a:ext cx="11988000" cy="4571280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4204,26 +4236,40 @@
       </sharedItems>
     </cacheField>
     <cacheField name="manual_features" numFmtId="0">
-      <sharedItems count="19" containsMixedTypes="1" containsSemiMixedTypes="1" containsString="1" containsNumber="0">
+      <sharedItems count="33" containsMixedTypes="0" containsSemiMixedTypes="0" containsString="1" containsNumber="0">
         <s v="AXHTTPD"/>
         <s v="AXHTTPD, HTTP_HAS_AUTHORIZATION,(-CONFIG_C_SAMPLES)"/>
         <s v="AXHTTPD,HTTP_HAS_CGI,(!CONFIG_PLATFORM_WIN32)"/>
         <s v="BIGINT_SLIDING_WINDOW"/>
+        <s v="CONFIG_AXTLSWRAP"/>
+        <s v="CONFIG_BIGING_CRT"/>
+        <s v="CONFIG_BUNZIP2 or CONFIG_BZCAT"/>
         <s v="CONFIG_CHVT"/>
         <s v="CONFIG_DATE"/>
         <s v="CONFIG_FDISK, CONFIG_FEATURE_FDISK_WRITABLE, CONFIG_FEATURE_SGI_LABEL"/>
+        <s v="CONFIG_HTTP_HAS_AUSTHORIZATION"/>
+        <s v="CONFIG_HTTP_HAS_CGI"/>
         <s v="CONFIG_HWCLOCK"/>
+        <s v="CONFIG_ID"/>
         <s v="CONFIG_LOSETUP"/>
         <s v="CONFIG_MOUNTPOINT, -CONFIG_TOYBOX_FREE"/>
+        <s v="CONFIG_NETCAT"/>
+        <s v="CONFIG_NETCAT and CONFIG_NETCAT_LISTEN"/>
+        <s v="CONFIG_NETSTAT"/>
         <s v="CONFIG_NOHUP"/>
         <s v="CONFIG_ONEIT"/>
+        <s v="CONFIG_SETSID"/>
+        <s v="CONFIG_SWITCH_ROOT"/>
+        <s v="CONFIG_TIME and CONFIG_TOYBOX_FLOAT"/>
+        <s v="CONFIG_TIMEOUT and CONFIG_TOYBOX_FLOAT"/>
         <s v="CONFIG_UPTIME"/>
+        <s v="CONFIG_UUDECODE"/>
         <s v="CONFIG_VMSTAT"/>
+        <s v="CONFIG_XARGS"/>
         <s v="generic"/>
         <s v="OPENSSL_COMPATIBLE"/>
         <s v="SSL_HAS_PEM"/>
         <s v="SSL_USE_PKCS12"/>
-        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="num_manual_features" numFmtId="0">
@@ -5259,7 +5305,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="18"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -5275,8 +5321,8 @@
     <x v="5"/>
     <x v="1"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="5"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="32"/>
@@ -5291,8 +5337,8 @@
     <x v="4"/>
     <x v="0"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="47"/>
@@ -5307,8 +5353,8 @@
     <x v="4"/>
     <x v="0"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="27"/>
@@ -5323,8 +5369,8 @@
     <x v="10"/>
     <x v="6"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="10"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="60"/>
@@ -5339,8 +5385,8 @@
     <x v="9"/>
     <x v="5"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="11"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="61"/>
@@ -5355,8 +5401,8 @@
     <x v="9"/>
     <x v="5"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="11"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
@@ -5371,8 +5417,8 @@
     <x v="7"/>
     <x v="3"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="28"/>
@@ -5387,8 +5433,8 @@
     <x v="8"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="8"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="17"/>
@@ -5403,8 +5449,8 @@
     <x v="13"/>
     <x v="7"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="12"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="31"/>
@@ -5419,8 +5465,8 @@
     <x v="27"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="13"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="39"/>
@@ -5435,7 +5481,7 @@
     <x v="2"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="18"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -5451,8 +5497,8 @@
     <x v="14"/>
     <x v="8"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="14"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="36"/>
@@ -5467,8 +5513,8 @@
     <x v="15"/>
     <x v="24"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="16"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="38"/>
@@ -5483,8 +5529,8 @@
     <x v="16"/>
     <x v="9"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="17"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="10"/>
@@ -5499,8 +5545,8 @@
     <x v="28"/>
     <x v="11"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="20"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="16"/>
@@ -5515,8 +5561,8 @@
     <x v="28"/>
     <x v="11"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="20"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
@@ -5531,8 +5577,8 @@
     <x v="21"/>
     <x v="13"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="21"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5547,8 +5593,8 @@
     <x v="24"/>
     <x v="16"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="22"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
@@ -5563,8 +5609,8 @@
     <x v="26"/>
     <x v="17"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="23"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="12"/>
@@ -5579,8 +5625,8 @@
     <x v="25"/>
     <x v="18"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="24"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -5595,8 +5641,8 @@
     <x v="30"/>
     <x v="20"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="26"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -5611,8 +5657,8 @@
     <x v="31"/>
     <x v="21"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="27"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="37"/>
@@ -5627,8 +5673,8 @@
     <x v="32"/>
     <x v="22"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="28"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="29"/>
@@ -5643,7 +5689,7 @@
     <x v="1"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="6"/>
+    <x v="9"/>
     <x v="2"/>
   </r>
   <r>
@@ -5659,7 +5705,7 @@
     <x v="1"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="6"/>
+    <x v="9"/>
     <x v="2"/>
   </r>
   <r>
@@ -5675,7 +5721,7 @@
     <x v="20"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -5691,7 +5737,7 @@
     <x v="20"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -5707,8 +5753,8 @@
     <x v="33"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="6"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
@@ -5723,7 +5769,7 @@
     <x v="7"/>
     <x v="3"/>
     <x v="6"/>
-    <x v="4"/>
+    <x v="7"/>
     <x v="0"/>
   </r>
   <r>
@@ -5739,7 +5785,7 @@
     <x v="8"/>
     <x v="4"/>
     <x v="6"/>
-    <x v="5"/>
+    <x v="8"/>
     <x v="0"/>
   </r>
   <r>
@@ -5755,7 +5801,7 @@
     <x v="13"/>
     <x v="7"/>
     <x v="6"/>
-    <x v="7"/>
+    <x v="12"/>
     <x v="0"/>
   </r>
   <r>
@@ -5771,7 +5817,7 @@
     <x v="14"/>
     <x v="8"/>
     <x v="6"/>
-    <x v="8"/>
+    <x v="14"/>
     <x v="0"/>
   </r>
   <r>
@@ -5788,7 +5834,7 @@
     <x v="10"/>
     <x v="6"/>
     <x v="18"/>
-    <x v="3"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
@@ -5803,7 +5849,7 @@
     <x v="24"/>
     <x v="16"/>
     <x v="6"/>
-    <x v="8"/>
+    <x v="14"/>
     <x v="0"/>
   </r>
   <r>
@@ -5819,8 +5865,8 @@
     <x v="30"/>
     <x v="20"/>
     <x v="6"/>
-    <x v="18"/>
-    <x v="3"/>
+    <x v="26"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="7"/>
@@ -5835,7 +5881,7 @@
     <x v="31"/>
     <x v="21"/>
     <x v="6"/>
-    <x v="13"/>
+    <x v="27"/>
     <x v="0"/>
   </r>
   <r>
@@ -5851,7 +5897,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -5867,7 +5913,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -5883,7 +5929,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -5899,7 +5945,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -5915,7 +5961,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -5931,7 +5977,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -5947,7 +5993,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6091,7 +6137,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6107,7 +6153,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6123,7 +6169,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6139,7 +6185,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6155,7 +6201,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6171,7 +6217,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6187,7 +6233,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6203,7 +6249,7 @@
     <x v="22"/>
     <x v="14"/>
     <x v="6"/>
-    <x v="16"/>
+    <x v="31"/>
     <x v="0"/>
   </r>
   <r>
@@ -6219,7 +6265,7 @@
     <x v="19"/>
     <x v="12"/>
     <x v="6"/>
-    <x v="15"/>
+    <x v="30"/>
     <x v="0"/>
   </r>
   <r>
@@ -6235,7 +6281,7 @@
     <x v="23"/>
     <x v="15"/>
     <x v="6"/>
-    <x v="17"/>
+    <x v="32"/>
     <x v="0"/>
   </r>
   <r>
@@ -6251,7 +6297,7 @@
     <x v="23"/>
     <x v="15"/>
     <x v="6"/>
-    <x v="17"/>
+    <x v="32"/>
     <x v="0"/>
   </r>
   <r>
@@ -6267,7 +6313,7 @@
     <x v="23"/>
     <x v="15"/>
     <x v="6"/>
-    <x v="17"/>
+    <x v="32"/>
     <x v="0"/>
   </r>
   <r>
@@ -6283,7 +6329,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6299,7 +6345,7 @@
     <x v="12"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6315,7 +6361,7 @@
     <x v="2"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6331,7 +6377,7 @@
     <x v="2"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6347,7 +6393,7 @@
     <x v="2"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6363,7 +6409,7 @@
     <x v="2"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6379,7 +6425,7 @@
     <x v="2"/>
     <x v="26"/>
     <x v="6"/>
-    <x v="14"/>
+    <x v="29"/>
     <x v="3"/>
   </r>
   <r>
@@ -6395,7 +6441,7 @@
     <x v="3"/>
     <x v="26"/>
     <x v="0"/>
-    <x v="9"/>
+    <x v="15"/>
     <x v="1"/>
   </r>
   <r>
@@ -6411,7 +6457,7 @@
     <x v="28"/>
     <x v="11"/>
     <x v="1"/>
-    <x v="11"/>
+    <x v="20"/>
     <x v="0"/>
   </r>
   <r>
@@ -6427,7 +6473,7 @@
     <x v="28"/>
     <x v="11"/>
     <x v="2"/>
-    <x v="11"/>
+    <x v="20"/>
     <x v="0"/>
   </r>
   <r>
@@ -6443,7 +6489,7 @@
     <x v="29"/>
     <x v="19"/>
     <x v="3"/>
-    <x v="12"/>
+    <x v="25"/>
     <x v="0"/>
   </r>
   <r>
@@ -6459,7 +6505,7 @@
     <x v="18"/>
     <x v="25"/>
     <x v="4"/>
-    <x v="10"/>
+    <x v="19"/>
     <x v="0"/>
   </r>
   <r>
@@ -6475,7 +6521,7 @@
     <x v="18"/>
     <x v="25"/>
     <x v="5"/>
-    <x v="10"/>
+    <x v="19"/>
     <x v="0"/>
   </r>
 </pivotCacheRecords>
@@ -6574,22 +6620,22 @@
   <dimension ref="A3:K7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="2" sqref="M24 K26 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9814814814815"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1518518518519"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.9814814814815"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.4962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1222222222222"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.0222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.9"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9407407407407"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1962962962963"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2888888888889"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="12.5444444444444"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6714,21 +6760,22 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
+      <selection pane="topLeft" activeCell="P16" activeCellId="2" sqref="M24 K26 P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8555555555556"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9740740740741"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.6333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.70740740740741"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4518518518519"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.4962962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.1"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.0222222222222"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.1"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9407407407407"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.1"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="12.5444444444444"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7025,28 +7072,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" ySplit="0" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="topRight" activeCell="K26" activeCellId="1" sqref="M24 K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.4962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.862962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4962962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4185185185185"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.937037037037"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2185185185185"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="76.4888888888889"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4962962962963"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.5407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.4962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="12.5444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1555555555556"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5444444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.5925925925926"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7259259259259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9814814814815"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.5703703703704"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.9851851851852"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="83.6222222222222"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5444444444444"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="32.2740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.5444444444444"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7092,13 +7139,16 @@
       <c r="N1" s="39" t="s">
         <v>28</v>
       </c>
+      <c r="O1" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="40" t="n">
         <v>287</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>3</v>
@@ -7107,7 +7157,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="40" t="n">
         <v>1000</v>
@@ -7121,10 +7171,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="41"/>
       <c r="L2" s="0" t="e">
@@ -7132,7 +7182,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="42"/>
     </row>
@@ -7141,7 +7191,7 @@
         <v>297</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>3</v>
@@ -7150,7 +7200,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="43" t="n">
         <v>519</v>
@@ -7164,23 +7214,26 @@
         <v>1</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" s="0" t="e">
         <f aca="false">L2+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,7 +7241,7 @@
         <v>164</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>3</v>
@@ -7197,7 +7250,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="40" t="n">
         <v>529</v>
@@ -7211,23 +7264,26 @@
         <v>1</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L4" s="0" t="e">
         <f aca="false">L3+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7235,7 +7291,7 @@
         <v>368</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>3</v>
@@ -7244,7 +7300,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5" s="43" t="n">
         <v>529</v>
@@ -7258,23 +7314,26 @@
         <v>1</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5" s="44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L5" s="0" t="e">
         <f aca="false">L4+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N5" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7282,7 +7341,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>3</v>
@@ -7291,7 +7350,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="40" t="n">
         <v>468</v>
@@ -7305,23 +7364,26 @@
         <v>1</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L6" s="0" t="e">
         <f aca="false">L5+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N6" s="42" t="n">
         <v>2</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7329,7 +7391,7 @@
         <v>628</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>3</v>
@@ -7338,7 +7400,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="43" t="n">
         <v>527</v>
@@ -7352,23 +7414,26 @@
         <v>1</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J7" s="43" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L7" s="0" t="e">
         <f aca="false">L6+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N7" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7376,7 +7441,7 @@
         <v>662</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>3</v>
@@ -7385,7 +7450,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8" s="40" t="n">
         <v>527</v>
@@ -7399,23 +7464,26 @@
         <v>1</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L8" s="0" t="e">
         <f aca="false">L7+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N8" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7423,7 +7491,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>3</v>
@@ -7432,7 +7500,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F9" s="40" t="n">
         <v>520</v>
@@ -7446,23 +7514,26 @@
         <v>1</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L9" s="0" t="e">
         <f aca="false">L8+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N9" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7470,7 +7541,7 @@
         <v>137</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>3</v>
@@ -7479,7 +7550,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F10" s="43" t="n">
         <v>516</v>
@@ -7493,23 +7564,26 @@
         <v>1</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K10" s="44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L10" s="0" t="e">
         <f aca="false">L9+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N10" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7517,7 +7591,7 @@
         <v>89</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>3</v>
@@ -7526,7 +7600,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F11" s="40" t="n">
         <v>474</v>
@@ -7540,23 +7614,26 @@
         <v>1</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L11" s="0" t="e">
         <f aca="false">L10+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M11" s="40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N11" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7564,7 +7641,7 @@
         <v>159</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>3</v>
@@ -7573,7 +7650,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="43" t="n">
         <v>478</v>
@@ -7591,7 +7668,7 @@
         <v>#NAME?</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K12" s="44"/>
       <c r="L12" s="0" t="e">
@@ -7599,10 +7676,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N12" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7610,7 +7690,7 @@
         <v>218</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>3</v>
@@ -7619,7 +7699,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="40" t="n">
         <v>1000</v>
@@ -7633,10 +7713,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" s="41"/>
       <c r="L13" s="0" t="e">
@@ -7644,7 +7724,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M13" s="42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N13" s="42"/>
     </row>
@@ -7653,7 +7733,7 @@
         <v>64</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>3</v>
@@ -7662,7 +7742,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F14" s="43" t="n">
         <v>536</v>
@@ -7676,23 +7756,26 @@
         <v>1</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K14" s="44" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L14" s="0" t="e">
         <f aca="false">L13+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N14" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7700,7 +7783,7 @@
         <v>178</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C15" s="40" t="s">
         <v>3</v>
@@ -7709,7 +7792,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="40" t="n">
         <v>667</v>
@@ -7723,23 +7806,26 @@
         <v>1</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L15" s="0" t="e">
         <f aca="false">L14+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N15" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7747,7 +7833,7 @@
         <v>186</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C16" s="43" t="s">
         <v>3</v>
@@ -7756,7 +7842,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F16" s="43" t="n">
         <v>298</v>
@@ -7770,23 +7856,26 @@
         <v>1</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L16" s="0" t="e">
         <f aca="false">L15+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M16" s="43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N16" s="42" t="n">
         <v>2</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7794,7 +7883,7 @@
         <v>60</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C17" s="40" t="s">
         <v>3</v>
@@ -7803,7 +7892,7 @@
         <v>12</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" s="40" t="n">
         <v>516</v>
@@ -7817,23 +7906,26 @@
         <v>1</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L17" s="0" t="e">
         <f aca="false">L16+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N17" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7841,7 +7933,7 @@
         <v>82</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C18" s="43" t="s">
         <v>3</v>
@@ -7850,7 +7942,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="43" t="n">
         <v>516</v>
@@ -7864,23 +7956,26 @@
         <v>1</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K18" s="44" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L18" s="0" t="e">
         <f aca="false">L17+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M18" s="42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N18" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7888,7 +7983,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C19" s="40" t="s">
         <v>3</v>
@@ -7897,7 +7992,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F19" s="40" t="n">
         <v>497</v>
@@ -7911,23 +8006,26 @@
         <v>1</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L19" s="0" t="e">
         <f aca="false">L18+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M19" s="42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N19" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7935,7 +8033,7 @@
         <v>49</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>3</v>
@@ -7944,7 +8042,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F20" s="43" t="n">
         <v>493</v>
@@ -7958,31 +8056,34 @@
         <v>1</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J20" s="43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L20" s="0" t="e">
         <f aca="false">L19+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N20" s="42" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O20" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="40" t="n">
         <v>31</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C21" s="40" t="s">
         <v>3</v>
@@ -7991,7 +8092,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F21" s="40" t="n">
         <v>355</v>
@@ -8005,23 +8106,26 @@
         <v>1</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L21" s="0" t="e">
         <f aca="false">L20+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M21" s="42" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N21" s="42" t="n">
         <v>2</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8029,7 +8133,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>3</v>
@@ -8038,7 +8142,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F22" s="43" t="n">
         <v>355</v>
@@ -8052,23 +8156,26 @@
         <v>1</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K22" s="44" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L22" s="0" t="e">
         <f aca="false">L21+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M22" s="42" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="N22" s="42" t="n">
         <v>2</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8076,7 +8183,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>3</v>
@@ -8085,7 +8192,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F23" s="40" t="n">
         <v>494</v>
@@ -8099,23 +8206,26 @@
         <v>1</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L23" s="0" t="e">
         <f aca="false">L22+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M23" s="42" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="N23" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8123,7 +8233,7 @@
         <v>51</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C24" s="43" t="s">
         <v>3</v>
@@ -8132,7 +8242,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F24" s="43" t="n">
         <v>517</v>
@@ -8146,23 +8256,26 @@
         <v>1</v>
       </c>
       <c r="I24" s="43" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L24" s="0" t="e">
         <f aca="false">L23+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M24" s="42" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N24" s="42" t="n">
         <v>1</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8170,7 +8283,7 @@
         <v>184</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C25" s="40" t="s">
         <v>3</v>
@@ -8179,7 +8292,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F25" s="40" t="n">
         <v>675</v>
@@ -8193,31 +8306,34 @@
         <v>1</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L25" s="0" t="e">
         <f aca="false">L24+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M25" s="42" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="N25" s="42" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O25" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="40" t="n">
         <v>138</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C26" s="40" t="s">
         <v>5</v>
@@ -8226,7 +8342,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F26" s="40" t="n">
         <v>486</v>
@@ -8244,7 +8360,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="0" t="e">
@@ -8252,18 +8368,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O26" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="43" t="n">
         <v>139</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C27" s="43" t="s">
         <v>5</v>
@@ -8272,7 +8391,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F27" s="43" t="n">
         <v>486</v>
@@ -8290,7 +8409,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K27" s="44"/>
       <c r="L27" s="0" t="e">
@@ -8298,10 +8417,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="N27" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8309,7 +8431,7 @@
         <v>262</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>5</v>
@@ -8318,7 +8440,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F28" s="40" t="n">
         <v>1000</v>
@@ -8332,10 +8454,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J28" s="40" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K28" s="41"/>
       <c r="L28" s="0" t="e">
@@ -8343,7 +8465,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8351,7 +8473,7 @@
         <v>227</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C29" s="43" t="s">
         <v>5</v>
@@ -8360,7 +8482,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F29" s="43" t="n">
         <v>1000</v>
@@ -8374,10 +8496,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K29" s="44"/>
       <c r="L29" s="0" t="e">
@@ -8385,7 +8507,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8393,7 +8515,7 @@
         <v>586</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>5</v>
@@ -8402,7 +8524,7 @@
         <v>12</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F30" s="43" t="n">
         <v>694</v>
@@ -8416,7 +8538,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="43" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J30" s="43"/>
       <c r="K30" s="44"/>
@@ -8425,10 +8547,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="N30" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8436,7 +8561,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>5</v>
@@ -8445,7 +8570,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F31" s="40" t="n">
         <v>520</v>
@@ -8459,23 +8584,26 @@
         <v>1</v>
       </c>
       <c r="I31" s="40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J31" s="40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L31" s="0" t="e">
         <f aca="false">L30+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N31" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8483,7 +8611,7 @@
         <v>137</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C32" s="43" t="s">
         <v>5</v>
@@ -8492,7 +8620,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F32" s="43" t="n">
         <v>516</v>
@@ -8506,31 +8634,34 @@
         <v>1</v>
       </c>
       <c r="I32" s="43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K32" s="44" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L32" s="0" t="e">
         <f aca="false">L31+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N32" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O32" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="40" t="n">
         <v>89</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>5</v>
@@ -8539,7 +8670,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F33" s="40" t="n">
         <v>474</v>
@@ -8553,31 +8684,34 @@
         <v>1</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J33" s="40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K33" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L33" s="0" t="e">
         <f aca="false">L32+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N33" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O33" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="43" t="n">
         <v>64</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" s="43" t="s">
         <v>5</v>
@@ -8586,7 +8720,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F34" s="43" t="n">
         <v>536</v>
@@ -8600,23 +8734,26 @@
         <v>1</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J34" s="43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K34" s="44" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L34" s="0" t="e">
         <f aca="false">L33+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N34" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8624,7 +8761,7 @@
         <v>118</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>5</v>
@@ -8633,7 +8770,7 @@
         <v>12</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F35" s="40" t="n">
         <v>522</v>
@@ -8647,31 +8784,34 @@
         <v>1</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="J35" s="40" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L35" s="0" t="e">
         <f aca="false">L34+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="N35" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O35" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="43" t="n">
         <v>49</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C36" s="43" t="s">
         <v>5</v>
@@ -8680,7 +8820,7 @@
         <v>12</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F36" s="43" t="n">
         <v>493</v>
@@ -8694,23 +8834,26 @@
         <v>1</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J36" s="43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K36" s="44" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L36" s="0" t="e">
         <f aca="false">L35+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N36" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8718,7 +8861,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>5</v>
@@ -8727,7 +8870,7 @@
         <v>12</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F37" s="40" t="n">
         <v>494</v>
@@ -8741,31 +8884,34 @@
         <v>1</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J37" s="40" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L37" s="0" t="e">
         <f aca="false">L36+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M37" s="40" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="N37" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O37" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="43" t="n">
         <v>51</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C38" s="43" t="s">
         <v>5</v>
@@ -8774,7 +8920,7 @@
         <v>12</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F38" s="43" t="n">
         <v>517</v>
@@ -8788,23 +8934,26 @@
         <v>1</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J38" s="43" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K38" s="44" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="L38" s="0" t="e">
         <f aca="false">L37+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8812,7 +8961,7 @@
         <v>104</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C39" s="43" t="s">
         <v>7</v>
@@ -8821,7 +8970,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F39" s="43" t="n">
         <v>1000</v>
@@ -8835,10 +8984,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J39" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K39" s="44"/>
       <c r="L39" s="0" t="e">
@@ -8846,7 +8995,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8854,7 +9003,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>7</v>
@@ -8863,7 +9012,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F40" s="40" t="n">
         <v>1000</v>
@@ -8877,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J40" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K40" s="41"/>
       <c r="L40" s="0" t="e">
@@ -8888,7 +9037,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8896,7 +9045,7 @@
         <v>252</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C41" s="43" t="s">
         <v>7</v>
@@ -8905,7 +9054,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F41" s="43" t="n">
         <v>1000</v>
@@ -8919,10 +9068,10 @@
         <v>0</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K41" s="44"/>
       <c r="L41" s="0" t="e">
@@ -8930,7 +9079,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8938,7 +9087,7 @@
         <v>265</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C42" s="40" t="s">
         <v>7</v>
@@ -8947,7 +9096,7 @@
         <v>11</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F42" s="40" t="n">
         <v>1000</v>
@@ -8961,10 +9110,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J42" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="0" t="e">
@@ -8972,7 +9121,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8980,7 +9129,7 @@
         <v>627</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C43" s="43" t="s">
         <v>7</v>
@@ -8989,7 +9138,7 @@
         <v>11</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F43" s="43" t="n">
         <v>1000</v>
@@ -9003,10 +9152,10 @@
         <v>0</v>
       </c>
       <c r="I43" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K43" s="44"/>
       <c r="L43" s="0" t="e">
@@ -9014,7 +9163,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9022,7 +9171,7 @@
         <v>826</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>7</v>
@@ -9031,7 +9180,7 @@
         <v>11</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F44" s="40" t="n">
         <v>1000</v>
@@ -9045,10 +9194,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J44" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K44" s="41"/>
       <c r="L44" s="0" t="e">
@@ -9056,7 +9205,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9064,7 +9213,7 @@
         <v>1112</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C45" s="43" t="s">
         <v>7</v>
@@ -9073,7 +9222,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F45" s="43" t="n">
         <v>1000</v>
@@ -9087,10 +9236,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J45" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K45" s="44"/>
       <c r="L45" s="0" t="e">
@@ -9098,7 +9247,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9106,7 +9255,7 @@
         <v>1319</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C46" s="40" t="s">
         <v>7</v>
@@ -9115,7 +9264,7 @@
         <v>11</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F46" s="40" t="n">
         <v>497</v>
@@ -9129,23 +9278,26 @@
         <v>1</v>
       </c>
       <c r="I46" s="40" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="J46" s="40" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K46" s="41" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L46" s="0" t="e">
         <f aca="false">L45+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N46" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9153,7 +9305,7 @@
         <v>1373</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C47" s="43" t="s">
         <v>7</v>
@@ -9162,7 +9314,7 @@
         <v>11</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F47" s="43" t="n">
         <v>503</v>
@@ -9180,28 +9332,31 @@
         <v>#NAME?</v>
       </c>
       <c r="J47" s="43" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K47" s="44" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L47" s="0" t="e">
         <f aca="false">L46+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M47" s="45" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="N47" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O47" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="40" t="n">
         <v>476</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C48" s="40" t="s">
         <v>7</v>
@@ -9210,7 +9365,7 @@
         <v>11</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F48" s="40" t="n">
         <v>527</v>
@@ -9224,31 +9379,34 @@
         <v>1</v>
       </c>
       <c r="I48" s="40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J48" s="40" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K48" s="41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L48" s="0" t="e">
         <f aca="false">L47+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="43" t="n">
         <v>479</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C49" s="43" t="s">
         <v>7</v>
@@ -9257,7 +9415,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F49" s="43" t="n">
         <v>527</v>
@@ -9271,23 +9429,26 @@
         <v>1</v>
       </c>
       <c r="I49" s="43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J49" s="43" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K49" s="44" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L49" s="0" t="e">
         <f aca="false">L48+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9295,7 +9456,7 @@
         <v>489</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C50" s="40" t="s">
         <v>7</v>
@@ -9304,7 +9465,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F50" s="40" t="n">
         <v>1000</v>
@@ -9318,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="I50" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J50" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K50" s="41"/>
       <c r="L50" s="0" t="e">
@@ -9329,10 +9490,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="N50" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9340,7 +9504,7 @@
         <v>614</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>7</v>
@@ -9349,7 +9513,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F51" s="43" t="n">
         <v>1000</v>
@@ -9363,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="I51" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K51" s="44"/>
       <c r="L51" s="0" t="e">
@@ -9374,18 +9538,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="N51" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O51" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="40" t="n">
         <v>117</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>7</v>
@@ -9394,7 +9561,7 @@
         <v>11</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F52" s="40" t="n">
         <v>307</v>
@@ -9408,10 +9575,10 @@
         <v>1</v>
       </c>
       <c r="I52" s="40" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J52" s="40" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="K52" s="41"/>
       <c r="L52" s="0" t="e">
@@ -9419,18 +9586,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="N52" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O52" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="43" t="n">
         <v>135</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C53" s="43" t="s">
         <v>7</v>
@@ -9439,7 +9609,7 @@
         <v>11</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F53" s="43" t="n">
         <v>307</v>
@@ -9453,10 +9623,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="43" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J53" s="43" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="K53" s="44"/>
       <c r="L53" s="0" t="e">
@@ -9464,10 +9634,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="N53" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9475,7 +9648,7 @@
         <v>169</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>7</v>
@@ -9484,7 +9657,7 @@
         <v>11</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F54" s="40" t="n">
         <v>1000</v>
@@ -9498,10 +9671,10 @@
         <v>0</v>
       </c>
       <c r="I54" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J54" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K54" s="41"/>
       <c r="L54" s="0" t="e">
@@ -9509,7 +9682,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9517,7 +9690,7 @@
         <v>457</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C55" s="43" t="s">
         <v>7</v>
@@ -9526,7 +9699,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F55" s="43" t="n">
         <v>1000</v>
@@ -9540,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I55" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J55" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K55" s="44"/>
       <c r="L55" s="0" t="e">
@@ -9551,7 +9724,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9559,7 +9732,7 @@
         <v>459</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C56" s="40" t="s">
         <v>7</v>
@@ -9568,7 +9741,7 @@
         <v>11</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F56" s="40" t="n">
         <v>1000</v>
@@ -9582,10 +9755,10 @@
         <v>0</v>
       </c>
       <c r="I56" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J56" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K56" s="41"/>
       <c r="L56" s="0" t="e">
@@ -9593,7 +9766,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9601,7 +9774,7 @@
         <v>464</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C57" s="43" t="s">
         <v>7</v>
@@ -9610,7 +9783,7 @@
         <v>11</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F57" s="43" t="n">
         <v>1000</v>
@@ -9624,10 +9797,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J57" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K57" s="44"/>
       <c r="L57" s="0" t="e">
@@ -9635,7 +9808,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9643,7 +9816,7 @@
         <v>72</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C58" s="40" t="s">
         <v>7</v>
@@ -9652,7 +9825,7 @@
         <v>11</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F58" s="40" t="n">
         <v>1000</v>
@@ -9666,10 +9839,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J58" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K58" s="41"/>
       <c r="L58" s="0" t="e">
@@ -9677,7 +9850,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9685,7 +9858,7 @@
         <v>115</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>7</v>
@@ -9694,7 +9867,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F59" s="43" t="n">
         <v>1000</v>
@@ -9708,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="I59" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J59" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K59" s="44"/>
       <c r="L59" s="0" t="e">
@@ -9719,7 +9892,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9727,7 +9900,7 @@
         <v>116</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>7</v>
@@ -9736,7 +9909,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F60" s="40" t="n">
         <v>1000</v>
@@ -9750,10 +9923,10 @@
         <v>0</v>
       </c>
       <c r="I60" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J60" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K60" s="41"/>
       <c r="L60" s="0" t="e">
@@ -9761,7 +9934,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9769,7 +9942,7 @@
         <v>406</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>7</v>
@@ -9778,7 +9951,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F61" s="43" t="n">
         <v>482</v>
@@ -9792,23 +9965,26 @@
         <v>1</v>
       </c>
       <c r="I61" s="43" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J61" s="43" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="K61" s="44" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="L61" s="0" t="e">
         <f aca="false">L60+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="N61" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9816,7 +9992,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C62" s="40" t="s">
         <v>7</v>
@@ -9825,7 +10001,7 @@
         <v>11</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F62" s="40" t="n">
         <v>485</v>
@@ -9839,23 +10015,26 @@
         <v>1</v>
       </c>
       <c r="I62" s="40" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="J62" s="40" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K62" s="41" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="L62" s="0" t="e">
         <f aca="false">L61+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N62" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O62" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9863,7 +10042,7 @@
         <v>173</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C63" s="43" t="s">
         <v>7</v>
@@ -9872,7 +10051,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F63" s="43" t="n">
         <v>501</v>
@@ -9886,23 +10065,26 @@
         <v>1</v>
       </c>
       <c r="I63" s="43" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J63" s="43" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K63" s="44" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L63" s="0" t="e">
         <f aca="false">L62+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N63" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9910,7 +10092,7 @@
         <v>177</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C64" s="40" t="s">
         <v>7</v>
@@ -9919,7 +10101,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F64" s="40" t="n">
         <v>501</v>
@@ -9933,23 +10115,26 @@
         <v>1</v>
       </c>
       <c r="I64" s="40" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J64" s="40" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K64" s="41" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L64" s="0" t="e">
         <f aca="false">L63+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N64" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9957,7 +10142,7 @@
         <v>288</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C65" s="43" t="s">
         <v>7</v>
@@ -9966,7 +10151,7 @@
         <v>11</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F65" s="43" t="n">
         <v>501</v>
@@ -9980,23 +10165,26 @@
         <v>1</v>
       </c>
       <c r="I65" s="43" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J65" s="43" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K65" s="44" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L65" s="0" t="e">
         <f aca="false">L64+1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N65" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10004,7 +10192,7 @@
         <v>169</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C66" s="40" t="s">
         <v>7</v>
@@ -10013,7 +10201,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F66" s="40" t="n">
         <v>1000</v>
@@ -10027,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="I66" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J66" s="40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K66" s="41"/>
       <c r="L66" s="0" t="e">
@@ -10038,7 +10226,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10046,7 +10234,7 @@
         <v>609</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C67" s="43" t="s">
         <v>7</v>
@@ -10055,7 +10243,7 @@
         <v>11</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F67" s="43" t="n">
         <v>1000</v>
@@ -10069,10 +10257,10 @@
         <v>0</v>
       </c>
       <c r="I67" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J67" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K67" s="44"/>
       <c r="L67" s="0" t="e">
@@ -10080,7 +10268,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10088,7 +10276,7 @@
         <v>625</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>7</v>
@@ -10097,7 +10285,7 @@
         <v>12</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F68" s="40" t="n">
         <v>1000</v>
@@ -10111,10 +10299,10 @@
         <v>0</v>
       </c>
       <c r="I68" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J68" s="40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K68" s="41"/>
       <c r="L68" s="0" t="e">
@@ -10122,7 +10310,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10130,7 +10318,7 @@
         <v>1257</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C69" s="43" t="s">
         <v>7</v>
@@ -10139,7 +10327,7 @@
         <v>12</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F69" s="43" t="n">
         <v>1000</v>
@@ -10153,10 +10341,10 @@
         <v>0</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J69" s="43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K69" s="44"/>
       <c r="L69" s="0" t="e">
@@ -10164,7 +10352,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10172,7 +10360,7 @@
         <v>1268</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>7</v>
@@ -10181,7 +10369,7 @@
         <v>12</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F70" s="40" t="n">
         <v>1000</v>
@@ -10195,10 +10383,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J70" s="40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K70" s="41"/>
       <c r="L70" s="0" t="e">
@@ -10206,7 +10394,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10214,7 +10402,7 @@
         <v>92</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C71" s="43" t="s">
         <v>7</v>
@@ -10223,7 +10411,7 @@
         <v>12</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F71" s="43" t="n">
         <v>1000</v>
@@ -10237,10 +10425,10 @@
         <v>0</v>
       </c>
       <c r="I71" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J71" s="43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K71" s="44"/>
       <c r="L71" s="0" t="e">
@@ -10248,7 +10436,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10256,7 +10444,7 @@
         <v>126</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C72" s="40" t="s">
         <v>7</v>
@@ -10265,7 +10453,7 @@
         <v>12</v>
       </c>
       <c r="E72" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F72" s="40" t="n">
         <v>1000</v>
@@ -10279,10 +10467,10 @@
         <v>0</v>
       </c>
       <c r="I72" s="40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J72" s="40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K72" s="41"/>
       <c r="L72" s="0" t="e">
@@ -10290,15 +10478,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="43" t="n">
         <v>53</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C73" s="43" t="s">
         <v>7</v>
@@ -10307,7 +10495,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F73" s="43" t="n">
         <v>258</v>
@@ -10325,17 +10513,20 @@
         <v>#NAME?</v>
       </c>
       <c r="J73" s="43" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K73" s="44"/>
       <c r="L73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N73" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10343,7 +10534,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C74" s="40" t="s">
         <v>7</v>
@@ -10352,7 +10543,7 @@
         <v>12</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F74" s="40" t="n">
         <v>516</v>
@@ -10366,23 +10557,26 @@
         <v>1</v>
       </c>
       <c r="I74" s="40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J74" s="40" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K74" s="41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L74" s="0" t="n">
         <f aca="false">L73+1</f>
         <v>2</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N74" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10390,7 +10584,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C75" s="43" t="s">
         <v>7</v>
@@ -10399,7 +10593,7 @@
         <v>12</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F75" s="43" t="n">
         <v>516</v>
@@ -10413,23 +10607,26 @@
         <v>1</v>
       </c>
       <c r="I75" s="43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J75" s="43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K75" s="44" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L75" s="0" t="n">
         <f aca="false">L74+1</f>
         <v>3</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N75" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10437,7 +10634,7 @@
         <v>54</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>7</v>
@@ -10446,7 +10643,7 @@
         <v>12</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F76" s="40" t="n">
         <v>501</v>
@@ -10460,23 +10657,26 @@
         <v>1</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="J76" s="40" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K76" s="41" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L76" s="0" t="n">
         <f aca="false">L75+1</f>
         <v>4</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="N76" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O76" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10484,7 +10684,7 @@
         <v>27</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C77" s="43" t="s">
         <v>7</v>
@@ -10493,7 +10693,7 @@
         <v>12</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F77" s="43" t="n">
         <v>485</v>
@@ -10507,23 +10707,26 @@
         <v>1</v>
       </c>
       <c r="I77" s="43" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J77" s="43" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K77" s="44" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L77" s="0" t="n">
         <f aca="false">L76+1</f>
         <v>5</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N77" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O77" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10531,7 +10734,7 @@
         <v>39</v>
       </c>
       <c r="B78" s="46" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C78" s="46" t="s">
         <v>7</v>
@@ -10540,7 +10743,7 @@
         <v>12</v>
       </c>
       <c r="E78" s="46" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F78" s="46" t="n">
         <v>485</v>
@@ -10554,23 +10757,26 @@
         <v>1</v>
       </c>
       <c r="I78" s="46" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J78" s="46" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K78" s="47" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L78" s="0" t="n">
         <f aca="false">L77+1</f>
         <v>6</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N78" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="O78" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -10594,13 +10800,13 @@
   </sheetPr>
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="M24 K26 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.14444444444444"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10643,7 +10849,7 @@
         <v>287</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
@@ -10652,16 +10858,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10669,7 +10875,7 @@
         <v>297</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
@@ -10678,19 +10884,19 @@
         <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>519</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10698,7 +10904,7 @@
         <v>164</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
@@ -10707,19 +10913,19 @@
         <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>529</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10727,7 +10933,7 @@
         <v>368</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
@@ -10736,19 +10942,19 @@
         <v>11</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>529</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10756,7 +10962,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
@@ -10765,19 +10971,19 @@
         <v>11</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>468</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10785,7 +10991,7 @@
         <v>628</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
@@ -10794,19 +11000,19 @@
         <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>527</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10814,7 +11020,7 @@
         <v>662</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
@@ -10823,19 +11029,19 @@
         <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>527</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10843,7 +11049,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>7</v>
@@ -10852,16 +11058,16 @@
         <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10869,7 +11075,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>7</v>
@@ -10878,16 +11084,16 @@
         <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10895,7 +11101,7 @@
         <v>252</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>7</v>
@@ -10904,16 +11110,16 @@
         <v>11</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10921,7 +11127,7 @@
         <v>265</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>7</v>
@@ -10930,16 +11136,16 @@
         <v>11</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10947,7 +11153,7 @@
         <v>627</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>7</v>
@@ -10956,16 +11162,16 @@
         <v>11</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10973,7 +11179,7 @@
         <v>826</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>7</v>
@@ -10982,16 +11188,16 @@
         <v>11</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10999,7 +11205,7 @@
         <v>1112</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>7</v>
@@ -11008,16 +11214,16 @@
         <v>11</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11025,7 +11231,7 @@
         <v>1319</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>7</v>
@@ -11034,19 +11240,19 @@
         <v>11</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>497</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11054,7 +11260,7 @@
         <v>1373</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>7</v>
@@ -11063,16 +11269,16 @@
         <v>11</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>503</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11080,7 +11286,7 @@
         <v>476</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>7</v>
@@ -11089,19 +11295,19 @@
         <v>11</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>527</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11109,7 +11315,7 @@
         <v>479</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>7</v>
@@ -11118,19 +11324,19 @@
         <v>11</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>527</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11138,7 +11344,7 @@
         <v>489</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>7</v>
@@ -11147,16 +11353,16 @@
         <v>11</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11164,7 +11370,7 @@
         <v>614</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>7</v>
@@ -11173,16 +11379,16 @@
         <v>11</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11190,7 +11396,7 @@
         <v>117</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>7</v>
@@ -11199,16 +11405,16 @@
         <v>11</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>307</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11216,7 +11422,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
@@ -11225,16 +11431,16 @@
         <v>11</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>307</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11242,7 +11448,7 @@
         <v>169</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>7</v>
@@ -11251,16 +11457,16 @@
         <v>11</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11268,7 +11474,7 @@
         <v>457</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>7</v>
@@ -11277,16 +11483,16 @@
         <v>11</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11294,7 +11500,7 @@
         <v>459</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>7</v>
@@ -11303,16 +11509,16 @@
         <v>11</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11320,7 +11526,7 @@
         <v>464</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>7</v>
@@ -11329,16 +11535,16 @@
         <v>11</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11346,7 +11552,7 @@
         <v>72</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>7</v>
@@ -11355,16 +11561,16 @@
         <v>11</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11372,7 +11578,7 @@
         <v>115</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>7</v>
@@ -11381,16 +11587,16 @@
         <v>11</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11398,7 +11604,7 @@
         <v>116</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>7</v>
@@ -11407,16 +11613,16 @@
         <v>11</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11424,7 +11630,7 @@
         <v>406</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>7</v>
@@ -11433,19 +11639,19 @@
         <v>11</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>482</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11453,7 +11659,7 @@
         <v>69</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>7</v>
@@ -11462,19 +11668,19 @@
         <v>11</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>485</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11482,7 +11688,7 @@
         <v>173</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>7</v>
@@ -11491,19 +11697,19 @@
         <v>11</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>501</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11511,7 +11717,7 @@
         <v>177</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>7</v>
@@ -11520,19 +11726,19 @@
         <v>11</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>501</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11540,7 +11746,7 @@
         <v>288</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>7</v>
@@ -11549,19 +11755,19 @@
         <v>11</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>501</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11569,7 +11775,7 @@
         <v>169</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>7</v>
@@ -11578,16 +11784,16 @@
         <v>11</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11595,7 +11801,7 @@
         <v>609</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>7</v>
@@ -11604,16 +11810,16 @@
         <v>11</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11621,7 +11827,7 @@
         <v>138</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>5</v>
@@ -11630,13 +11836,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>486</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11644,7 +11850,7 @@
         <v>139</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>5</v>
@@ -11653,13 +11859,13 @@
         <v>13</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>486</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11667,7 +11873,7 @@
         <v>262</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>5</v>
@@ -11676,16 +11882,16 @@
         <v>13</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11693,7 +11899,7 @@
         <v>227</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
@@ -11702,16 +11908,16 @@
         <v>13</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11719,7 +11925,7 @@
         <v>24</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>3</v>
@@ -11728,19 +11934,19 @@
         <v>12</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>520</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11748,7 +11954,7 @@
         <v>137</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>3</v>
@@ -11757,19 +11963,19 @@
         <v>12</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>516</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11777,7 +11983,7 @@
         <v>89</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>3</v>
@@ -11786,19 +11992,19 @@
         <v>12</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>474</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11806,7 +12012,7 @@
         <v>159</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>3</v>
@@ -11815,13 +12021,13 @@
         <v>12</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>478</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11829,7 +12035,7 @@
         <v>218</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>3</v>
@@ -11838,16 +12044,16 @@
         <v>12</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11855,7 +12061,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>3</v>
@@ -11864,19 +12070,19 @@
         <v>12</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>536</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11884,7 +12090,7 @@
         <v>178</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>3</v>
@@ -11893,19 +12099,19 @@
         <v>12</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>667</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11913,7 +12119,7 @@
         <v>186</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>3</v>
@@ -11922,19 +12128,19 @@
         <v>12</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>298</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11942,7 +12148,7 @@
         <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>3</v>
@@ -11951,19 +12157,19 @@
         <v>12</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>516</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11971,7 +12177,7 @@
         <v>82</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>3</v>
@@ -11980,19 +12186,19 @@
         <v>12</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>516</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12000,7 +12206,7 @@
         <v>22</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>3</v>
@@ -12009,19 +12215,19 @@
         <v>12</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>497</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12029,7 +12235,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>3</v>
@@ -12038,19 +12244,19 @@
         <v>12</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>493</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12058,7 +12264,7 @@
         <v>31</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>3</v>
@@ -12067,19 +12273,19 @@
         <v>12</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>355</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12087,7 +12293,7 @@
         <v>66</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>3</v>
@@ -12096,19 +12302,19 @@
         <v>12</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>355</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12116,7 +12322,7 @@
         <v>29</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>3</v>
@@ -12125,19 +12331,19 @@
         <v>12</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>494</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12145,7 +12351,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>3</v>
@@ -12154,19 +12360,19 @@
         <v>12</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>517</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12174,7 +12380,7 @@
         <v>184</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>3</v>
@@ -12183,19 +12389,19 @@
         <v>12</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>675</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12203,7 +12409,7 @@
         <v>586</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>5</v>
@@ -12212,13 +12418,13 @@
         <v>12</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>694</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12226,7 +12432,7 @@
         <v>24</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>5</v>
@@ -12235,19 +12441,19 @@
         <v>12</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>520</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12255,7 +12461,7 @@
         <v>137</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>5</v>
@@ -12264,19 +12470,19 @@
         <v>12</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>516</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12284,7 +12490,7 @@
         <v>89</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>5</v>
@@ -12293,19 +12499,19 @@
         <v>12</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>474</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12313,7 +12519,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>5</v>
@@ -12322,19 +12528,19 @@
         <v>12</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>536</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12342,7 +12548,7 @@
         <v>118</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>5</v>
@@ -12351,19 +12557,19 @@
         <v>12</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>522</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12371,7 +12577,7 @@
         <v>49</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>5</v>
@@ -12380,19 +12586,19 @@
         <v>12</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>493</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12400,7 +12606,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>5</v>
@@ -12409,19 +12615,19 @@
         <v>12</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>494</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12429,7 +12635,7 @@
         <v>51</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>5</v>
@@ -12438,19 +12644,19 @@
         <v>12</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>517</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12458,7 +12664,7 @@
         <v>625</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>7</v>
@@ -12467,16 +12673,16 @@
         <v>12</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12484,7 +12690,7 @@
         <v>1257</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>7</v>
@@ -12493,16 +12699,16 @@
         <v>12</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12510,7 +12716,7 @@
         <v>1268</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>7</v>
@@ -12519,16 +12725,16 @@
         <v>12</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12536,7 +12742,7 @@
         <v>92</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>7</v>
@@ -12545,16 +12751,16 @@
         <v>12</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12562,7 +12768,7 @@
         <v>126</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>7</v>
@@ -12571,16 +12777,16 @@
         <v>12</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12588,7 +12794,7 @@
         <v>53</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>7</v>
@@ -12597,13 +12803,13 @@
         <v>12</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>258</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12611,7 +12817,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>7</v>
@@ -12620,19 +12826,19 @@
         <v>12</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>516</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12640,7 +12846,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>7</v>
@@ -12649,19 +12855,19 @@
         <v>12</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>516</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12669,7 +12875,7 @@
         <v>54</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>7</v>
@@ -12678,19 +12884,19 @@
         <v>12</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>501</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12698,7 +12904,7 @@
         <v>27</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>7</v>
@@ -12707,19 +12913,19 @@
         <v>12</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>485</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12727,7 +12933,7 @@
         <v>39</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>7</v>
@@ -12736,19 +12942,19 @@
         <v>12</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>485</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
